--- a/BackTest/2019-10-26 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-26 BackTest WAVES.xlsx
@@ -8361,17 +8361,13 @@
         <v>855.8</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>854</v>
-      </c>
-      <c r="K228" t="n">
-        <v>854</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
@@ -8400,624 +8396,532 @@
         <v>857.6</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>856</v>
-      </c>
-      <c r="K229" t="n">
-        <v>854</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>858</v>
+      </c>
+      <c r="C230" t="n">
+        <v>858</v>
+      </c>
+      <c r="D230" t="n">
+        <v>858</v>
+      </c>
+      <c r="E230" t="n">
+        <v>858</v>
+      </c>
+      <c r="F230" t="n">
+        <v>782.4632</v>
+      </c>
+      <c r="G230" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>859</v>
+      </c>
+      <c r="C231" t="n">
+        <v>863</v>
+      </c>
+      <c r="D231" t="n">
+        <v>863</v>
+      </c>
+      <c r="E231" t="n">
+        <v>858</v>
+      </c>
+      <c r="F231" t="n">
+        <v>188.1091</v>
+      </c>
+      <c r="G231" t="n">
+        <v>858.8</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>861</v>
+      </c>
+      <c r="C232" t="n">
+        <v>861</v>
+      </c>
+      <c r="D232" t="n">
+        <v>861</v>
+      </c>
+      <c r="E232" t="n">
+        <v>861</v>
+      </c>
+      <c r="F232" t="n">
+        <v>148.5151</v>
+      </c>
+      <c r="G232" t="n">
+        <v>860.2</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>864</v>
+      </c>
+      <c r="C233" t="n">
+        <v>864</v>
+      </c>
+      <c r="D233" t="n">
+        <v>864</v>
+      </c>
+      <c r="E233" t="n">
+        <v>864</v>
+      </c>
+      <c r="F233" t="n">
+        <v>190</v>
+      </c>
+      <c r="G233" t="n">
+        <v>862.2</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>860</v>
+      </c>
+      <c r="C234" t="n">
+        <v>864</v>
+      </c>
+      <c r="D234" t="n">
+        <v>864</v>
+      </c>
+      <c r="E234" t="n">
+        <v>860</v>
+      </c>
+      <c r="F234" t="n">
+        <v>922.7418</v>
+      </c>
+      <c r="G234" t="n">
+        <v>862</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>860</v>
+      </c>
+      <c r="C235" t="n">
+        <v>860</v>
+      </c>
+      <c r="D235" t="n">
+        <v>860</v>
+      </c>
+      <c r="E235" t="n">
+        <v>860</v>
+      </c>
+      <c r="F235" t="n">
+        <v>207.645</v>
+      </c>
+      <c r="G235" t="n">
+        <v>862.4</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>863</v>
+      </c>
+      <c r="C236" t="n">
+        <v>863</v>
+      </c>
+      <c r="D236" t="n">
+        <v>863</v>
+      </c>
+      <c r="E236" t="n">
+        <v>863</v>
+      </c>
+      <c r="F236" t="n">
+        <v>52.816</v>
+      </c>
+      <c r="G236" t="n">
+        <v>862.4</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>861</v>
+      </c>
+      <c r="C237" t="n">
+        <v>864</v>
+      </c>
+      <c r="D237" t="n">
+        <v>864</v>
+      </c>
+      <c r="E237" t="n">
+        <v>861</v>
+      </c>
+      <c r="F237" t="n">
+        <v>804.1852</v>
+      </c>
+      <c r="G237" t="n">
+        <v>863</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>858</v>
+      </c>
+      <c r="C238" t="n">
+        <v>857</v>
+      </c>
+      <c r="D238" t="n">
+        <v>858</v>
+      </c>
+      <c r="E238" t="n">
+        <v>857</v>
+      </c>
+      <c r="F238" t="n">
+        <v>552.8484</v>
+      </c>
+      <c r="G238" t="n">
+        <v>861.6</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>860</v>
+      </c>
+      <c r="C239" t="n">
+        <v>858</v>
+      </c>
+      <c r="D239" t="n">
+        <v>860</v>
+      </c>
+      <c r="E239" t="n">
+        <v>858</v>
+      </c>
+      <c r="F239" t="n">
+        <v>525.6582</v>
+      </c>
+      <c r="G239" t="n">
+        <v>860.4</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>858</v>
+      </c>
+      <c r="C240" t="n">
+        <v>858</v>
+      </c>
+      <c r="D240" t="n">
+        <v>858</v>
+      </c>
+      <c r="E240" t="n">
+        <v>858</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1354.853</v>
+      </c>
+      <c r="G240" t="n">
+        <v>860</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>858</v>
+      </c>
+      <c r="K240" t="n">
+        <v>858</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>861</v>
+      </c>
+      <c r="C241" t="n">
+        <v>863</v>
+      </c>
+      <c r="D241" t="n">
+        <v>863</v>
+      </c>
+      <c r="E241" t="n">
+        <v>861</v>
+      </c>
+      <c r="F241" t="n">
+        <v>235</v>
+      </c>
+      <c r="G241" t="n">
+        <v>860</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>858</v>
+      </c>
+      <c r="K241" t="n">
+        <v>858</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>864</v>
+      </c>
+      <c r="C242" t="n">
+        <v>864</v>
+      </c>
+      <c r="D242" t="n">
+        <v>864</v>
+      </c>
+      <c r="E242" t="n">
+        <v>864</v>
+      </c>
+      <c r="F242" t="n">
+        <v>185</v>
+      </c>
+      <c r="G242" t="n">
+        <v>860</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>863</v>
+      </c>
+      <c r="K242" t="n">
         <v>858</v>
       </c>
-      <c r="C230" t="n">
-        <v>858</v>
-      </c>
-      <c r="D230" t="n">
-        <v>858</v>
-      </c>
-      <c r="E230" t="n">
-        <v>858</v>
-      </c>
-      <c r="F230" t="n">
-        <v>782.4632</v>
-      </c>
-      <c r="G230" t="n">
-        <v>856.8</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>858</v>
-      </c>
-      <c r="K230" t="n">
-        <v>854</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="L242" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>859</v>
-      </c>
-      <c r="C231" t="n">
-        <v>863</v>
-      </c>
-      <c r="D231" t="n">
-        <v>863</v>
-      </c>
-      <c r="E231" t="n">
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>864</v>
+      </c>
+      <c r="C243" t="n">
+        <v>866</v>
+      </c>
+      <c r="D243" t="n">
+        <v>866</v>
+      </c>
+      <c r="E243" t="n">
+        <v>864</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1233.4785</v>
+      </c>
+      <c r="G243" t="n">
+        <v>861.8</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>864</v>
+      </c>
+      <c r="K243" t="n">
         <v>858</v>
       </c>
-      <c r="F231" t="n">
-        <v>188.1091</v>
-      </c>
-      <c r="G231" t="n">
-        <v>858.8</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>859</v>
-      </c>
-      <c r="K231" t="n">
-        <v>854</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="L243" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>861</v>
-      </c>
-      <c r="C232" t="n">
-        <v>861</v>
-      </c>
-      <c r="D232" t="n">
-        <v>861</v>
-      </c>
-      <c r="E232" t="n">
-        <v>861</v>
-      </c>
-      <c r="F232" t="n">
-        <v>148.5151</v>
-      </c>
-      <c r="G232" t="n">
-        <v>860.2</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>861</v>
-      </c>
-      <c r="K232" t="n">
-        <v>854</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>864</v>
-      </c>
-      <c r="C233" t="n">
-        <v>864</v>
-      </c>
-      <c r="D233" t="n">
-        <v>864</v>
-      </c>
-      <c r="E233" t="n">
-        <v>864</v>
-      </c>
-      <c r="F233" t="n">
-        <v>190</v>
-      </c>
-      <c r="G233" t="n">
-        <v>862.2</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>864</v>
-      </c>
-      <c r="K233" t="n">
-        <v>854</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>860</v>
-      </c>
-      <c r="C234" t="n">
-        <v>864</v>
-      </c>
-      <c r="D234" t="n">
-        <v>864</v>
-      </c>
-      <c r="E234" t="n">
-        <v>860</v>
-      </c>
-      <c r="F234" t="n">
-        <v>922.7418</v>
-      </c>
-      <c r="G234" t="n">
-        <v>862</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>860</v>
-      </c>
-      <c r="K234" t="n">
-        <v>854</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>860</v>
-      </c>
-      <c r="C235" t="n">
-        <v>860</v>
-      </c>
-      <c r="D235" t="n">
-        <v>860</v>
-      </c>
-      <c r="E235" t="n">
-        <v>860</v>
-      </c>
-      <c r="F235" t="n">
-        <v>207.645</v>
-      </c>
-      <c r="G235" t="n">
-        <v>862.4</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
-        <v>860</v>
-      </c>
-      <c r="K235" t="n">
-        <v>854</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>863</v>
-      </c>
-      <c r="C236" t="n">
-        <v>863</v>
-      </c>
-      <c r="D236" t="n">
-        <v>863</v>
-      </c>
-      <c r="E236" t="n">
-        <v>863</v>
-      </c>
-      <c r="F236" t="n">
-        <v>52.816</v>
-      </c>
-      <c r="G236" t="n">
-        <v>862.4</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>863</v>
-      </c>
-      <c r="K236" t="n">
-        <v>854</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>861</v>
-      </c>
-      <c r="C237" t="n">
-        <v>864</v>
-      </c>
-      <c r="D237" t="n">
-        <v>864</v>
-      </c>
-      <c r="E237" t="n">
-        <v>861</v>
-      </c>
-      <c r="F237" t="n">
-        <v>804.1852</v>
-      </c>
-      <c r="G237" t="n">
-        <v>863</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>861</v>
-      </c>
-      <c r="K237" t="n">
-        <v>854</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>858</v>
-      </c>
-      <c r="C238" t="n">
-        <v>857</v>
-      </c>
-      <c r="D238" t="n">
-        <v>858</v>
-      </c>
-      <c r="E238" t="n">
-        <v>857</v>
-      </c>
-      <c r="F238" t="n">
-        <v>552.8484</v>
-      </c>
-      <c r="G238" t="n">
-        <v>861.6</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>858</v>
-      </c>
-      <c r="K238" t="n">
-        <v>854</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>860</v>
-      </c>
-      <c r="C239" t="n">
-        <v>858</v>
-      </c>
-      <c r="D239" t="n">
-        <v>860</v>
-      </c>
-      <c r="E239" t="n">
-        <v>858</v>
-      </c>
-      <c r="F239" t="n">
-        <v>525.6582</v>
-      </c>
-      <c r="G239" t="n">
-        <v>860.4</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>860</v>
-      </c>
-      <c r="K239" t="n">
-        <v>854</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>858</v>
-      </c>
-      <c r="C240" t="n">
-        <v>858</v>
-      </c>
-      <c r="D240" t="n">
-        <v>858</v>
-      </c>
-      <c r="E240" t="n">
-        <v>858</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1354.853</v>
-      </c>
-      <c r="G240" t="n">
-        <v>860</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>858</v>
-      </c>
-      <c r="K240" t="n">
-        <v>854</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>861</v>
-      </c>
-      <c r="C241" t="n">
-        <v>863</v>
-      </c>
-      <c r="D241" t="n">
-        <v>863</v>
-      </c>
-      <c r="E241" t="n">
-        <v>861</v>
-      </c>
-      <c r="F241" t="n">
-        <v>235</v>
-      </c>
-      <c r="G241" t="n">
-        <v>860</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>861</v>
-      </c>
-      <c r="K241" t="n">
-        <v>854</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>864</v>
-      </c>
-      <c r="C242" t="n">
-        <v>864</v>
-      </c>
-      <c r="D242" t="n">
-        <v>864</v>
-      </c>
-      <c r="E242" t="n">
-        <v>864</v>
-      </c>
-      <c r="F242" t="n">
-        <v>185</v>
-      </c>
-      <c r="G242" t="n">
-        <v>860</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>864</v>
-      </c>
-      <c r="K242" t="n">
-        <v>854</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>864</v>
-      </c>
-      <c r="C243" t="n">
-        <v>866</v>
-      </c>
-      <c r="D243" t="n">
-        <v>866</v>
-      </c>
-      <c r="E243" t="n">
-        <v>864</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1233.4785</v>
-      </c>
-      <c r="G243" t="n">
-        <v>861.8</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>864</v>
-      </c>
-      <c r="K243" t="n">
-        <v>854</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9045,16 +8949,14 @@
         <v>864.6</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>866</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9088,16 +8990,14 @@
         <v>867.6</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>873</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9131,16 +9031,14 @@
         <v>869.2</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>871</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9174,16 +9072,14 @@
         <v>870.6</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>871</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9217,16 +9113,14 @@
         <v>871.8</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>871</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9260,16 +9154,14 @@
         <v>871.8</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>872</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9310,7 +9202,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9351,7 +9243,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9385,16 +9277,14 @@
         <v>867.8</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>865</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9428,16 +9318,14 @@
         <v>866.8</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>865</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9471,16 +9359,14 @@
         <v>866.8</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>872</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9514,16 +9400,14 @@
         <v>868.6</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>873</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9564,7 +9448,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9605,7 +9489,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9646,7 +9530,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -9687,7 +9571,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -9728,7 +9612,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -9769,7 +9653,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -9810,7 +9694,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -9851,7 +9735,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -9892,7 +9776,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -9933,7 +9817,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -9974,7 +9858,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10015,7 +9899,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-26 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>910</v>
       </c>
       <c r="C2" t="n">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D2" t="n">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E2" t="n">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F2" t="n">
-        <v>539.4674</v>
+        <v>2235.2652</v>
       </c>
       <c r="G2" t="n">
-        <v>910.6</v>
+        <v>887.6833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C3" t="n">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="D3" t="n">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="E3" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F3" t="n">
-        <v>190.44</v>
+        <v>539.4674</v>
       </c>
       <c r="G3" t="n">
-        <v>910</v>
+        <v>888.15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="C4" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D4" t="n">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E4" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F4" t="n">
-        <v>1743.5976</v>
+        <v>190.44</v>
       </c>
       <c r="G4" t="n">
-        <v>909.8</v>
+        <v>888.6166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="C5" t="n">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="D5" t="n">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="E5" t="n">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="F5" t="n">
-        <v>2380.5029</v>
+        <v>1743.5976</v>
       </c>
       <c r="G5" t="n">
-        <v>906</v>
+        <v>889.0833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="C6" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D6" t="n">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="E6" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F6" t="n">
-        <v>9.109999999999999</v>
+        <v>2380.5029</v>
       </c>
       <c r="G6" t="n">
-        <v>902</v>
+        <v>889.3166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="C7" t="n">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D7" t="n">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E7" t="n">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F7" t="n">
-        <v>140.76</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>898.8</v>
+        <v>889.5333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="C8" t="n">
         <v>898</v>
@@ -652,13 +652,13 @@
         <v>898</v>
       </c>
       <c r="E8" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="F8" t="n">
-        <v>3414.8137</v>
+        <v>140.76</v>
       </c>
       <c r="G8" t="n">
-        <v>897.2</v>
+        <v>889.8833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C9" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="D9" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E9" t="n">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F9" t="n">
-        <v>1165.0039</v>
+        <v>3414.8137</v>
       </c>
       <c r="G9" t="n">
-        <v>894.4</v>
+        <v>890.2333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C10" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="D10" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="E10" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F10" t="n">
-        <v>80.297</v>
+        <v>1165.0039</v>
       </c>
       <c r="G10" t="n">
-        <v>894</v>
+        <v>890.55</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C11" t="n">
         <v>889</v>
       </c>
       <c r="D11" t="n">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E11" t="n">
         <v>889</v>
       </c>
       <c r="F11" t="n">
-        <v>1489.625</v>
+        <v>80.297</v>
       </c>
       <c r="G11" t="n">
-        <v>893.8</v>
+        <v>890.7666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C12" t="n">
         <v>889</v>
       </c>
       <c r="D12" t="n">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E12" t="n">
         <v>889</v>
       </c>
       <c r="F12" t="n">
-        <v>94.029</v>
+        <v>1489.625</v>
       </c>
       <c r="G12" t="n">
-        <v>892</v>
+        <v>890.9666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C13" t="n">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D13" t="n">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="E13" t="n">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>94.029</v>
       </c>
       <c r="G13" t="n">
-        <v>890.6</v>
+        <v>891.2166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C14" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D14" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E14" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>890.2</v>
+        <v>891.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C15" t="n">
         <v>893</v>
       </c>
       <c r="D15" t="n">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E15" t="n">
         <v>893</v>
       </c>
       <c r="F15" t="n">
-        <v>252.9811</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>891</v>
+        <v>891.8166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>899</v>
+      </c>
+      <c r="C16" t="n">
         <v>893</v>
       </c>
-      <c r="C16" t="n">
-        <v>895</v>
-      </c>
       <c r="D16" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E16" t="n">
         <v>893</v>
       </c>
       <c r="F16" t="n">
-        <v>686.1355</v>
+        <v>252.9811</v>
       </c>
       <c r="G16" t="n">
         <v>892.2</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C17" t="n">
         <v>895</v>
@@ -967,13 +967,13 @@
         <v>896</v>
       </c>
       <c r="E17" t="n">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F17" t="n">
-        <v>274.6851</v>
+        <v>686.1355</v>
       </c>
       <c r="G17" t="n">
-        <v>893.4</v>
+        <v>892.6666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>896</v>
+      </c>
+      <c r="C18" t="n">
         <v>895</v>
       </c>
-      <c r="C18" t="n">
-        <v>893</v>
-      </c>
       <c r="D18" t="n">
+        <v>896</v>
+      </c>
+      <c r="E18" t="n">
         <v>895</v>
       </c>
-      <c r="E18" t="n">
-        <v>893</v>
-      </c>
       <c r="F18" t="n">
-        <v>893.2556</v>
+        <v>274.6851</v>
       </c>
       <c r="G18" t="n">
-        <v>893.8</v>
+        <v>893.0833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C19" t="n">
         <v>893</v>
       </c>
       <c r="D19" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E19" t="n">
         <v>893</v>
       </c>
       <c r="F19" t="n">
-        <v>351.5711</v>
+        <v>893.2556</v>
       </c>
       <c r="G19" t="n">
-        <v>893.8</v>
+        <v>893.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C20" t="n">
         <v>893</v>
       </c>
       <c r="D20" t="n">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E20" t="n">
         <v>893</v>
       </c>
       <c r="F20" t="n">
-        <v>7553.5053</v>
+        <v>351.5711</v>
       </c>
       <c r="G20" t="n">
-        <v>893.8</v>
+        <v>893.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C21" t="n">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D21" t="n">
         <v>900</v>
       </c>
       <c r="E21" t="n">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F21" t="n">
-        <v>45.8728</v>
+        <v>7553.5053</v>
       </c>
       <c r="G21" t="n">
-        <v>894.6</v>
+        <v>893.7666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C22" t="n">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D22" t="n">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="E22" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F22" t="n">
-        <v>17152.9407</v>
+        <v>45.8728</v>
       </c>
       <c r="G22" t="n">
-        <v>897</v>
+        <v>894.1166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>906</v>
+      </c>
+      <c r="C23" t="n">
         <v>907</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>908</v>
       </c>
-      <c r="D23" t="n">
-        <v>911</v>
-      </c>
       <c r="E23" t="n">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F23" t="n">
-        <v>3538.1688</v>
+        <v>17152.9407</v>
       </c>
       <c r="G23" t="n">
-        <v>900</v>
+        <v>894.5666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>907</v>
+      </c>
+      <c r="C24" t="n">
         <v>908</v>
-      </c>
-      <c r="C24" t="n">
-        <v>910</v>
       </c>
       <c r="D24" t="n">
         <v>911</v>
       </c>
       <c r="E24" t="n">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="F24" t="n">
-        <v>11237.5503</v>
+        <v>3538.1688</v>
       </c>
       <c r="G24" t="n">
-        <v>903.4</v>
+        <v>895.0833333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>908</v>
+      </c>
+      <c r="C25" t="n">
         <v>910</v>
       </c>
-      <c r="C25" t="n">
-        <v>903</v>
-      </c>
       <c r="D25" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E25" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F25" t="n">
-        <v>8424.026099999999</v>
+        <v>11237.5503</v>
       </c>
       <c r="G25" t="n">
-        <v>905.4</v>
+        <v>895.6333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>910</v>
+      </c>
+      <c r="C26" t="n">
         <v>903</v>
       </c>
-      <c r="C26" t="n">
-        <v>911</v>
-      </c>
       <c r="D26" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E26" t="n">
         <v>903</v>
       </c>
       <c r="F26" t="n">
-        <v>1768.9711</v>
+        <v>8424.026099999999</v>
       </c>
       <c r="G26" t="n">
-        <v>907.8</v>
+        <v>896.0666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C27" t="n">
         <v>911</v>
@@ -1317,13 +1317,13 @@
         <v>911</v>
       </c>
       <c r="E27" t="n">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="F27" t="n">
-        <v>2319.7007</v>
+        <v>1768.9711</v>
       </c>
       <c r="G27" t="n">
-        <v>908.6</v>
+        <v>896.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C28" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D28" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E28" t="n">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="F28" t="n">
-        <v>3330.3799</v>
+        <v>2319.7007</v>
       </c>
       <c r="G28" t="n">
-        <v>909.4</v>
+        <v>896.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C29" t="n">
         <v>912</v>
       </c>
       <c r="D29" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E29" t="n">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="F29" t="n">
-        <v>11773.1923</v>
+        <v>3330.3799</v>
       </c>
       <c r="G29" t="n">
-        <v>909.8</v>
+        <v>897.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C30" t="n">
         <v>912</v>
       </c>
       <c r="D30" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E30" t="n">
         <v>912</v>
       </c>
       <c r="F30" t="n">
-        <v>575</v>
+        <v>11773.1923</v>
       </c>
       <c r="G30" t="n">
-        <v>911.6</v>
+        <v>897.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C31" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D31" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E31" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F31" t="n">
-        <v>260</v>
+        <v>575</v>
       </c>
       <c r="G31" t="n">
-        <v>911.6</v>
+        <v>898.3333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>911</v>
       </c>
       <c r="F32" t="n">
-        <v>3115</v>
+        <v>260</v>
       </c>
       <c r="G32" t="n">
-        <v>911.6</v>
+        <v>898.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>911</v>
       </c>
       <c r="F33" t="n">
-        <v>14130.0826</v>
+        <v>3115</v>
       </c>
       <c r="G33" t="n">
-        <v>911.4</v>
+        <v>899.05</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>911</v>
       </c>
       <c r="F34" t="n">
-        <v>2518.2675</v>
+        <v>14130.0826</v>
       </c>
       <c r="G34" t="n">
-        <v>911.2</v>
+        <v>899.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>911</v>
       </c>
       <c r="C35" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D35" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E35" t="n">
         <v>911</v>
       </c>
       <c r="F35" t="n">
-        <v>31.3859</v>
+        <v>2518.2675</v>
       </c>
       <c r="G35" t="n">
-        <v>911.2</v>
+        <v>899.7666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C36" t="n">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D36" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E36" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F36" t="n">
-        <v>459.3023</v>
+        <v>31.3859</v>
       </c>
       <c r="G36" t="n">
-        <v>911.8</v>
+        <v>900.1666666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>914</v>
       </c>
       <c r="C37" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D37" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E37" t="n">
         <v>914</v>
       </c>
       <c r="F37" t="n">
-        <v>711.5916</v>
+        <v>459.3023</v>
       </c>
       <c r="G37" t="n">
-        <v>912.6</v>
+        <v>900.5666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C38" t="n">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D38" t="n">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E38" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F38" t="n">
-        <v>855.1924</v>
+        <v>711.5916</v>
       </c>
       <c r="G38" t="n">
-        <v>913.8</v>
+        <v>900.95</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C39" t="n">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="D39" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E39" t="n">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="F39" t="n">
-        <v>1695.8831</v>
+        <v>855.1924</v>
       </c>
       <c r="G39" t="n">
-        <v>913.8</v>
+        <v>901.3333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C40" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D40" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E40" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F40" t="n">
-        <v>41.5652</v>
+        <v>1695.8831</v>
       </c>
       <c r="G40" t="n">
-        <v>914</v>
+        <v>901.6333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C41" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D41" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E41" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F41" t="n">
-        <v>1.5745</v>
+        <v>41.5652</v>
       </c>
       <c r="G41" t="n">
-        <v>913.6</v>
+        <v>901.9666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>912</v>
       </c>
       <c r="C42" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D42" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E42" t="n">
         <v>912</v>
       </c>
       <c r="F42" t="n">
-        <v>442.464</v>
+        <v>1.5745</v>
       </c>
       <c r="G42" t="n">
-        <v>913.2</v>
+        <v>902.2833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>912</v>
+      </c>
+      <c r="C43" t="n">
         <v>913</v>
       </c>
-      <c r="C43" t="n">
-        <v>916</v>
-      </c>
       <c r="D43" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E43" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F43" t="n">
-        <v>407.5273</v>
+        <v>442.464</v>
       </c>
       <c r="G43" t="n">
-        <v>913</v>
+        <v>902.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>913</v>
       </c>
       <c r="C44" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D44" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E44" t="n">
         <v>913</v>
       </c>
       <c r="F44" t="n">
-        <v>56.7305</v>
+        <v>407.5273</v>
       </c>
       <c r="G44" t="n">
-        <v>913.4</v>
+        <v>902.9666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C45" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D45" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E45" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F45" t="n">
-        <v>802.7203</v>
+        <v>56.7305</v>
       </c>
       <c r="G45" t="n">
-        <v>913.6</v>
+        <v>903.4166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C46" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D46" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E46" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F46" t="n">
-        <v>344.52</v>
+        <v>802.7203</v>
       </c>
       <c r="G46" t="n">
-        <v>914.4</v>
+        <v>903.75</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>917</v>
+      </c>
+      <c r="C47" t="n">
         <v>916</v>
-      </c>
-      <c r="C47" t="n">
-        <v>917</v>
       </c>
       <c r="D47" t="n">
         <v>917</v>
       </c>
       <c r="E47" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="F47" t="n">
-        <v>1426.1673</v>
+        <v>344.52</v>
       </c>
       <c r="G47" t="n">
-        <v>915.2</v>
+        <v>904.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C48" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D48" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E48" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="F48" t="n">
-        <v>395.2936</v>
+        <v>1426.1673</v>
       </c>
       <c r="G48" t="n">
-        <v>915.6</v>
+        <v>904.4166666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>918</v>
       </c>
       <c r="C49" t="n">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="D49" t="n">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="E49" t="n">
         <v>918</v>
       </c>
       <c r="F49" t="n">
-        <v>905.6757</v>
+        <v>395.2936</v>
       </c>
       <c r="G49" t="n">
-        <v>918.2</v>
+        <v>904.75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>918</v>
+      </c>
+      <c r="C50" t="n">
         <v>926</v>
       </c>
-      <c r="C50" t="n">
-        <v>922</v>
-      </c>
       <c r="D50" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E50" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F50" t="n">
-        <v>755.9906</v>
+        <v>905.6757</v>
       </c>
       <c r="G50" t="n">
-        <v>919.8</v>
+        <v>905.25</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>926</v>
       </c>
       <c r="C51" t="n">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D51" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E51" t="n">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F51" t="n">
-        <v>1270.6647</v>
+        <v>755.9906</v>
       </c>
       <c r="G51" t="n">
-        <v>921.8</v>
+        <v>905.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C52" t="n">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D52" t="n">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="E52" t="n">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F52" t="n">
-        <v>339.1822</v>
+        <v>1270.6647</v>
       </c>
       <c r="G52" t="n">
-        <v>924.6</v>
+        <v>906.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>930</v>
+      </c>
+      <c r="C53" t="n">
         <v>931</v>
-      </c>
-      <c r="C53" t="n">
-        <v>929</v>
       </c>
       <c r="D53" t="n">
         <v>931</v>
       </c>
       <c r="E53" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F53" t="n">
-        <v>1382.571</v>
+        <v>339.1822</v>
       </c>
       <c r="G53" t="n">
-        <v>926.8</v>
+        <v>906.75</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>931</v>
+      </c>
+      <c r="C54" t="n">
         <v>929</v>
       </c>
-      <c r="C54" t="n">
-        <v>926</v>
-      </c>
       <c r="D54" t="n">
+        <v>931</v>
+      </c>
+      <c r="E54" t="n">
         <v>929</v>
       </c>
-      <c r="E54" t="n">
-        <v>926</v>
-      </c>
       <c r="F54" t="n">
-        <v>4048.9437</v>
+        <v>1382.571</v>
       </c>
       <c r="G54" t="n">
-        <v>926.8</v>
+        <v>907.2666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>929</v>
+      </c>
+      <c r="C55" t="n">
         <v>926</v>
       </c>
-      <c r="C55" t="n">
-        <v>922</v>
-      </c>
       <c r="D55" t="n">
+        <v>929</v>
+      </c>
+      <c r="E55" t="n">
         <v>926</v>
       </c>
-      <c r="E55" t="n">
-        <v>922</v>
-      </c>
       <c r="F55" t="n">
-        <v>5866.0851</v>
+        <v>4048.9437</v>
       </c>
       <c r="G55" t="n">
-        <v>926.8</v>
+        <v>907.7333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C56" t="n">
         <v>922</v>
       </c>
       <c r="D56" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E56" t="n">
         <v>922</v>
       </c>
       <c r="F56" t="n">
-        <v>1716.704</v>
+        <v>5866.0851</v>
       </c>
       <c r="G56" t="n">
-        <v>926</v>
+        <v>908.0333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>922</v>
       </c>
       <c r="C57" t="n">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="D57" t="n">
         <v>922</v>
       </c>
       <c r="E57" t="n">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="F57" t="n">
-        <v>2781.4523</v>
+        <v>1716.704</v>
       </c>
       <c r="G57" t="n">
-        <v>921.8</v>
+        <v>908.3333333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="C58" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D58" t="n">
-        <v>909</v>
+        <v>922</v>
       </c>
       <c r="E58" t="n">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="F58" t="n">
-        <v>50</v>
+        <v>2781.4523</v>
       </c>
       <c r="G58" t="n">
-        <v>917.8</v>
+        <v>908.2833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="C59" t="n">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="D59" t="n">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="E59" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F59" t="n">
-        <v>899.1464999999999</v>
+        <v>50</v>
       </c>
       <c r="G59" t="n">
-        <v>913.4</v>
+        <v>908.2833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C60" t="n">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="D60" t="n">
         <v>920</v>
       </c>
       <c r="E60" t="n">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="F60" t="n">
-        <v>395.6922</v>
+        <v>899.1464999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>913</v>
+        <v>908.1833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C61" t="n">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="D61" t="n">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="E61" t="n">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="F61" t="n">
-        <v>903</v>
+        <v>395.6922</v>
       </c>
       <c r="G61" t="n">
-        <v>909.8</v>
+        <v>908.35</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C62" t="n">
         <v>906</v>
       </c>
       <c r="D62" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E62" t="n">
         <v>906</v>
       </c>
       <c r="F62" t="n">
-        <v>320</v>
+        <v>903</v>
       </c>
       <c r="G62" t="n">
-        <v>909</v>
+        <v>908.2833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>907</v>
+      </c>
+      <c r="C63" t="n">
         <v>906</v>
       </c>
-      <c r="C63" t="n">
-        <v>905</v>
-      </c>
       <c r="D63" t="n">
+        <v>907</v>
+      </c>
+      <c r="E63" t="n">
         <v>906</v>
       </c>
-      <c r="E63" t="n">
-        <v>905</v>
-      </c>
       <c r="F63" t="n">
-        <v>339.1195</v>
+        <v>320</v>
       </c>
       <c r="G63" t="n">
-        <v>908.2</v>
+        <v>908.15</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C64" t="n">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D64" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E64" t="n">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F64" t="n">
-        <v>22.7479</v>
+        <v>339.1195</v>
       </c>
       <c r="G64" t="n">
-        <v>909.2</v>
+        <v>908.1333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C65" t="n">
         <v>909</v>
@@ -2647,13 +2647,13 @@
         <v>909</v>
       </c>
       <c r="E65" t="n">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="F65" t="n">
-        <v>2924.5049</v>
+        <v>22.7479</v>
       </c>
       <c r="G65" t="n">
-        <v>907</v>
+        <v>908.1333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C66" t="n">
         <v>909</v>
@@ -2682,13 +2682,13 @@
         <v>909</v>
       </c>
       <c r="E66" t="n">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F66" t="n">
-        <v>20.4444</v>
+        <v>2924.5049</v>
       </c>
       <c r="G66" t="n">
-        <v>907.6</v>
+        <v>908.4333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C67" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D67" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E67" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>20.4444</v>
       </c>
       <c r="G67" t="n">
-        <v>909.4</v>
+        <v>908.75</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="C68" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D68" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="E68" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="F68" t="n">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>910.4</v>
+        <v>909.0333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>910</v>
       </c>
       <c r="C69" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D69" t="n">
         <v>910</v>
       </c>
       <c r="E69" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F69" t="n">
-        <v>77.6036</v>
+        <v>255</v>
       </c>
       <c r="G69" t="n">
-        <v>910.4</v>
+        <v>909.2333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C70" t="n">
         <v>909</v>
       </c>
       <c r="D70" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E70" t="n">
         <v>909</v>
       </c>
       <c r="F70" t="n">
-        <v>13.4222</v>
+        <v>77.6036</v>
       </c>
       <c r="G70" t="n">
-        <v>910.4</v>
+        <v>909.4666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C71" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D71" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E71" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="F71" t="n">
-        <v>2443.4971</v>
+        <v>13.4222</v>
       </c>
       <c r="G71" t="n">
-        <v>910.6</v>
+        <v>909.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C72" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D72" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E72" t="n">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F72" t="n">
-        <v>275.34653465</v>
+        <v>2443.4971</v>
       </c>
       <c r="G72" t="n">
-        <v>909.4</v>
+        <v>910.15</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="C73" t="n">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="D73" t="n">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="E73" t="n">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="F73" t="n">
-        <v>711.1211</v>
+        <v>275.34653465</v>
       </c>
       <c r="G73" t="n">
-        <v>906</v>
+        <v>910.4833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>901</v>
+      </c>
+      <c r="C74" t="n">
         <v>893</v>
       </c>
-      <c r="C74" t="n">
-        <v>889</v>
-      </c>
       <c r="D74" t="n">
+        <v>901</v>
+      </c>
+      <c r="E74" t="n">
         <v>893</v>
       </c>
-      <c r="E74" t="n">
-        <v>889</v>
-      </c>
       <c r="F74" t="n">
-        <v>348.7584</v>
+        <v>711.1211</v>
       </c>
       <c r="G74" t="n">
-        <v>902</v>
+        <v>910.5166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C75" t="n">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D75" t="n">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E75" t="n">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F75" t="n">
-        <v>65.7212</v>
+        <v>348.7584</v>
       </c>
       <c r="G75" t="n">
-        <v>899.6</v>
+        <v>910.45</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C76" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D76" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E76" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F76" t="n">
-        <v>133.8781</v>
+        <v>65.7212</v>
       </c>
       <c r="G76" t="n">
-        <v>896.8</v>
+        <v>910.5166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="C77" t="n">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="D77" t="n">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="E77" t="n">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>133.8781</v>
       </c>
       <c r="G77" t="n">
-        <v>896</v>
+        <v>910.5333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>905</v>
       </c>
       <c r="C78" t="n">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="D78" t="n">
         <v>905</v>
       </c>
       <c r="E78" t="n">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="F78" t="n">
-        <v>864.0496000000001</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>896.4</v>
+        <v>910.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C79" t="n">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D79" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E79" t="n">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>864.0496000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>899.4</v>
+        <v>910.7333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C80" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D80" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E80" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F80" t="n">
-        <v>635.024</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>899.6</v>
+        <v>910.9166666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C81" t="n">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D81" t="n">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E81" t="n">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F81" t="n">
-        <v>27.6585</v>
+        <v>635.024</v>
       </c>
       <c r="G81" t="n">
-        <v>901.4</v>
+        <v>911</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C82" t="n">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="D82" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E82" t="n">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="F82" t="n">
-        <v>1289.3282</v>
+        <v>27.6585</v>
       </c>
       <c r="G82" t="n">
-        <v>900</v>
+        <v>911.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C83" t="n">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="D83" t="n">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="E83" t="n">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F83" t="n">
-        <v>2812.0635</v>
+        <v>1289.3282</v>
       </c>
       <c r="G83" t="n">
-        <v>902.8</v>
+        <v>910.95</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C84" t="n">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="D84" t="n">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="E84" t="n">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="F84" t="n">
-        <v>662.4471</v>
+        <v>2812.0635</v>
       </c>
       <c r="G84" t="n">
-        <v>902.8</v>
+        <v>910.9666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C85" t="n">
         <v>904</v>
       </c>
       <c r="D85" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E85" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F85" t="n">
-        <v>1212.8891</v>
+        <v>662.4471</v>
       </c>
       <c r="G85" t="n">
-        <v>904</v>
+        <v>910.8666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>904</v>
       </c>
       <c r="C86" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D86" t="n">
         <v>904</v>
       </c>
       <c r="E86" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F86" t="n">
-        <v>1817.2986</v>
+        <v>1212.8891</v>
       </c>
       <c r="G86" t="n">
-        <v>903.6</v>
+        <v>910.8833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>904</v>
+      </c>
+      <c r="C87" t="n">
         <v>903</v>
       </c>
-      <c r="C87" t="n">
-        <v>902</v>
-      </c>
       <c r="D87" t="n">
+        <v>904</v>
+      </c>
+      <c r="E87" t="n">
         <v>903</v>
       </c>
-      <c r="E87" t="n">
-        <v>902</v>
-      </c>
       <c r="F87" t="n">
-        <v>1451.764</v>
+        <v>1817.2986</v>
       </c>
       <c r="G87" t="n">
-        <v>904.4</v>
+        <v>910.75</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>903</v>
+      </c>
+      <c r="C88" t="n">
         <v>902</v>
       </c>
-      <c r="C88" t="n">
-        <v>900</v>
-      </c>
       <c r="D88" t="n">
+        <v>903</v>
+      </c>
+      <c r="E88" t="n">
         <v>902</v>
       </c>
-      <c r="E88" t="n">
-        <v>900</v>
-      </c>
       <c r="F88" t="n">
-        <v>4053.628</v>
+        <v>1451.764</v>
       </c>
       <c r="G88" t="n">
-        <v>902.6</v>
+        <v>910.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C89" t="n">
         <v>900</v>
       </c>
       <c r="D89" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E89" t="n">
         <v>900</v>
       </c>
       <c r="F89" t="n">
-        <v>410</v>
+        <v>4053.628</v>
       </c>
       <c r="G89" t="n">
-        <v>901.8</v>
+        <v>910.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3519,16 +3519,16 @@
         <v>900</v>
       </c>
       <c r="D90" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E90" t="n">
         <v>900</v>
       </c>
       <c r="F90" t="n">
-        <v>567</v>
+        <v>410</v>
       </c>
       <c r="G90" t="n">
-        <v>901</v>
+        <v>910.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>900</v>
       </c>
       <c r="D91" t="n">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E91" t="n">
         <v>900</v>
       </c>
       <c r="F91" t="n">
-        <v>1991.71933701</v>
+        <v>567</v>
       </c>
       <c r="G91" t="n">
-        <v>900.4</v>
+        <v>910</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3589,16 +3589,16 @@
         <v>900</v>
       </c>
       <c r="D92" t="n">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="E92" t="n">
         <v>900</v>
       </c>
       <c r="F92" t="n">
-        <v>125</v>
+        <v>1991.71933701</v>
       </c>
       <c r="G92" t="n">
-        <v>900</v>
+        <v>909.8166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>900</v>
       </c>
       <c r="F93" t="n">
-        <v>361.1989</v>
+        <v>125</v>
       </c>
       <c r="G93" t="n">
-        <v>900</v>
+        <v>909.6333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>900</v>
       </c>
       <c r="F94" t="n">
-        <v>25</v>
+        <v>361.1989</v>
       </c>
       <c r="G94" t="n">
-        <v>900</v>
+        <v>909.45</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>900</v>
       </c>
       <c r="C95" t="n">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D95" t="n">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E95" t="n">
         <v>900</v>
       </c>
       <c r="F95" t="n">
-        <v>107.0308</v>
+        <v>25</v>
       </c>
       <c r="G95" t="n">
-        <v>901</v>
+        <v>909.2666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>900</v>
       </c>
       <c r="C96" t="n">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="D96" t="n">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="E96" t="n">
         <v>900</v>
       </c>
       <c r="F96" t="n">
-        <v>130.6083</v>
+        <v>107.0308</v>
       </c>
       <c r="G96" t="n">
-        <v>901</v>
+        <v>909.15</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C97" t="n">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="D97" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E97" t="n">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>130.6083</v>
       </c>
       <c r="G97" t="n">
-        <v>900.2</v>
+        <v>908.9166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>899</v>
+      </c>
+      <c r="C98" t="n">
         <v>896</v>
       </c>
-      <c r="C98" t="n">
-        <v>902</v>
-      </c>
       <c r="D98" t="n">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E98" t="n">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="F98" t="n">
-        <v>2482.0311</v>
+        <v>50</v>
       </c>
       <c r="G98" t="n">
-        <v>900.6</v>
+        <v>908.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C99" t="n">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="D99" t="n">
         <v>902</v>
       </c>
       <c r="E99" t="n">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F99" t="n">
-        <v>726.9732</v>
+        <v>2482.0311</v>
       </c>
       <c r="G99" t="n">
-        <v>898.6</v>
+        <v>908.35</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="C100" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D100" t="n">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="E100" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F100" t="n">
-        <v>166.3026</v>
+        <v>726.9732</v>
       </c>
       <c r="G100" t="n">
-        <v>895.2</v>
+        <v>908</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C101" t="n">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D101" t="n">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E101" t="n">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F101" t="n">
-        <v>25</v>
+        <v>166.3026</v>
       </c>
       <c r="G101" t="n">
-        <v>893</v>
+        <v>907.5833333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C102" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D102" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E102" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F102" t="n">
-        <v>7.9903</v>
+        <v>25</v>
       </c>
       <c r="G102" t="n">
-        <v>891.4</v>
+        <v>907.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>888</v>
       </c>
       <c r="F103" t="n">
-        <v>142.419</v>
+        <v>7.9903</v>
       </c>
       <c r="G103" t="n">
-        <v>888.6</v>
+        <v>906.7833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C104" t="n">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D104" t="n">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E104" t="n">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F104" t="n">
-        <v>115.5608</v>
+        <v>142.419</v>
       </c>
       <c r="G104" t="n">
-        <v>888.4</v>
+        <v>906.3166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C105" t="n">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="D105" t="n">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="E105" t="n">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F105" t="n">
-        <v>137.9088</v>
+        <v>115.5608</v>
       </c>
       <c r="G105" t="n">
-        <v>887.8</v>
+        <v>905.9166666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C106" t="n">
         <v>885</v>
       </c>
       <c r="D106" t="n">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E106" t="n">
         <v>885</v>
       </c>
       <c r="F106" t="n">
-        <v>89.4584</v>
+        <v>137.9088</v>
       </c>
       <c r="G106" t="n">
-        <v>887</v>
+        <v>905.4333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="C107" t="n">
         <v>885</v>
       </c>
       <c r="D107" t="n">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="E107" t="n">
         <v>885</v>
       </c>
       <c r="F107" t="n">
-        <v>63.2768</v>
+        <v>89.4584</v>
       </c>
       <c r="G107" t="n">
-        <v>886.4</v>
+        <v>904.9166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C108" t="n">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D108" t="n">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E108" t="n">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F108" t="n">
-        <v>6.3672</v>
+        <v>63.2768</v>
       </c>
       <c r="G108" t="n">
-        <v>885.4</v>
+        <v>904.3833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C109" t="n">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D109" t="n">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E109" t="n">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F109" t="n">
-        <v>4181.0947</v>
+        <v>6.3672</v>
       </c>
       <c r="G109" t="n">
-        <v>885.8</v>
+        <v>903.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C110" t="n">
         <v>891</v>
@@ -4222,13 +4222,13 @@
         <v>891</v>
       </c>
       <c r="E110" t="n">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F110" t="n">
-        <v>25</v>
+        <v>4181.0947</v>
       </c>
       <c r="G110" t="n">
-        <v>887</v>
+        <v>903.2166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C111" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D111" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E111" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F111" t="n">
-        <v>24.4474</v>
+        <v>25</v>
       </c>
       <c r="G111" t="n">
-        <v>888.6</v>
+        <v>902.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C112" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D112" t="n">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E112" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F112" t="n">
-        <v>674.0302</v>
+        <v>24.4474</v>
       </c>
       <c r="G112" t="n">
-        <v>889.8</v>
+        <v>902.15</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C113" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D113" t="n">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E113" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F113" t="n">
-        <v>389.238</v>
+        <v>674.0302</v>
       </c>
       <c r="G113" t="n">
-        <v>891.8</v>
+        <v>901.4833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>893</v>
       </c>
       <c r="F114" t="n">
-        <v>104.5245</v>
+        <v>389.238</v>
       </c>
       <c r="G114" t="n">
-        <v>892.2</v>
+        <v>900.8833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>893</v>
       </c>
       <c r="F115" t="n">
-        <v>108.1044</v>
+        <v>104.5245</v>
       </c>
       <c r="G115" t="n">
-        <v>892.6</v>
+        <v>900.3333333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C116" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D116" t="n">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E116" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="F116" t="n">
-        <v>2559.0774</v>
+        <v>108.1044</v>
       </c>
       <c r="G116" t="n">
-        <v>891.4</v>
+        <v>899.85</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="C117" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D117" t="n">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="E117" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F117" t="n">
-        <v>221.3573</v>
+        <v>2559.0774</v>
       </c>
       <c r="G117" t="n">
-        <v>891.4</v>
+        <v>899.2666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C118" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D118" t="n">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E118" t="n">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F118" t="n">
-        <v>35.428</v>
+        <v>221.3573</v>
       </c>
       <c r="G118" t="n">
-        <v>892.2</v>
+        <v>898.95</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C119" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D119" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E119" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F119" t="n">
-        <v>150</v>
+        <v>35.428</v>
       </c>
       <c r="G119" t="n">
-        <v>894</v>
+        <v>898.75</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C120" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D120" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E120" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F120" t="n">
-        <v>867.679</v>
+        <v>150</v>
       </c>
       <c r="G120" t="n">
-        <v>896.2</v>
+        <v>898.7166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>904</v>
       </c>
       <c r="F121" t="n">
-        <v>142.8472</v>
+        <v>867.679</v>
       </c>
       <c r="G121" t="n">
-        <v>899.6</v>
+        <v>898.45</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C122" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D122" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E122" t="n">
         <v>904</v>
       </c>
       <c r="F122" t="n">
-        <v>802.9374</v>
+        <v>142.8472</v>
       </c>
       <c r="G122" t="n">
-        <v>902.4</v>
+        <v>898.4166666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>905</v>
       </c>
       <c r="C123" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D123" t="n">
         <v>905</v>
@@ -4680,10 +4680,10 @@
         <v>904</v>
       </c>
       <c r="F123" t="n">
-        <v>110.07</v>
+        <v>802.9374</v>
       </c>
       <c r="G123" t="n">
-        <v>903.8</v>
+        <v>898.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4706,19 @@
         <v>905</v>
       </c>
       <c r="C124" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D124" t="n">
         <v>905</v>
       </c>
       <c r="E124" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F124" t="n">
-        <v>212.9136</v>
+        <v>110.07</v>
       </c>
       <c r="G124" t="n">
-        <v>904.4</v>
+        <v>898.3833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>905</v>
       </c>
       <c r="F125" t="n">
-        <v>892.0587</v>
+        <v>212.9136</v>
       </c>
       <c r="G125" t="n">
-        <v>904.6</v>
+        <v>898.3166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C126" t="n">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D126" t="n">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E126" t="n">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F126" t="n">
-        <v>24.8156</v>
+        <v>892.0587</v>
       </c>
       <c r="G126" t="n">
-        <v>904.2</v>
+        <v>898.25</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C127" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D127" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E127" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F127" t="n">
-        <v>238.5828</v>
+        <v>24.8156</v>
       </c>
       <c r="G127" t="n">
-        <v>903.4</v>
+        <v>898.1333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>901</v>
       </c>
       <c r="F128" t="n">
-        <v>825</v>
+        <v>238.5828</v>
       </c>
       <c r="G128" t="n">
-        <v>902.8</v>
+        <v>897.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>901</v>
       </c>
       <c r="F129" t="n">
-        <v>1077.0636</v>
+        <v>825</v>
       </c>
       <c r="G129" t="n">
-        <v>902</v>
+        <v>897.75</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>901</v>
       </c>
       <c r="F130" t="n">
-        <v>75</v>
+        <v>1077.0636</v>
       </c>
       <c r="G130" t="n">
-        <v>901.2</v>
+        <v>897.6166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>901</v>
       </c>
       <c r="F131" t="n">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="G131" t="n">
-        <v>901</v>
+        <v>897.4833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>901</v>
       </c>
       <c r="F132" t="n">
-        <v>1505.8042</v>
+        <v>325</v>
       </c>
       <c r="G132" t="n">
-        <v>901</v>
+        <v>897.3333333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C133" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D133" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E133" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F133" t="n">
-        <v>850.0074</v>
+        <v>1505.8042</v>
       </c>
       <c r="G133" t="n">
-        <v>900.6</v>
+        <v>897.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C134" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D134" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E134" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F134" t="n">
-        <v>82.26000000000001</v>
+        <v>850.0074</v>
       </c>
       <c r="G134" t="n">
-        <v>900</v>
+        <v>897.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>898</v>
       </c>
       <c r="F135" t="n">
-        <v>17.74</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>899.4</v>
+        <v>897.45</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C136" t="n">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D136" t="n">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E136" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F136" t="n">
-        <v>4874.4491</v>
+        <v>17.74</v>
       </c>
       <c r="G136" t="n">
-        <v>899</v>
+        <v>897.4666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C137" t="n">
         <v>899</v>
@@ -5167,13 +5167,13 @@
         <v>899</v>
       </c>
       <c r="E137" t="n">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F137" t="n">
-        <v>634.9299999999999</v>
+        <v>4874.4491</v>
       </c>
       <c r="G137" t="n">
-        <v>898.6</v>
+        <v>897.5166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>899</v>
       </c>
       <c r="F138" t="n">
-        <v>100</v>
+        <v>634.9299999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>898.6</v>
+        <v>897.4166666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C139" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D139" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E139" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F139" t="n">
-        <v>263.3618</v>
+        <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>899</v>
+        <v>897.4833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C140" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D140" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E140" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F140" t="n">
-        <v>675.8523</v>
+        <v>263.3618</v>
       </c>
       <c r="G140" t="n">
-        <v>899.6</v>
+        <v>897.4166666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C141" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D141" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E141" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>675.8523</v>
       </c>
       <c r="G141" t="n">
-        <v>899.8</v>
+        <v>897.4666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C142" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D142" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E142" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="F142" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G142" t="n">
-        <v>899.4</v>
+        <v>897.3833333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C143" t="n">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D143" t="n">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E143" t="n">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F143" t="n">
-        <v>9.99</v>
+        <v>6</v>
       </c>
       <c r="G143" t="n">
-        <v>898.6</v>
+        <v>897.3666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>895</v>
       </c>
       <c r="F144" t="n">
-        <v>30.4536</v>
+        <v>9.99</v>
       </c>
       <c r="G144" t="n">
-        <v>897.6</v>
+        <v>897.1333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>895</v>
       </c>
       <c r="C145" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="D145" t="n">
         <v>895</v>
       </c>
       <c r="E145" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F145" t="n">
-        <v>325.3803</v>
+        <v>30.4536</v>
       </c>
       <c r="G145" t="n">
-        <v>895.6</v>
+        <v>896.9833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="C146" t="n">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="D146" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="E146" t="n">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="F146" t="n">
-        <v>1300</v>
+        <v>325.3803</v>
       </c>
       <c r="G146" t="n">
-        <v>892.6</v>
+        <v>896.7666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C147" t="n">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D147" t="n">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E147" t="n">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F147" t="n">
-        <v>1219.8703</v>
+        <v>1300</v>
       </c>
       <c r="G147" t="n">
-        <v>890.6</v>
+        <v>896.4666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>887</v>
       </c>
       <c r="F148" t="n">
-        <v>502.1047</v>
+        <v>1219.8703</v>
       </c>
       <c r="G148" t="n">
-        <v>889</v>
+        <v>896.2166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>887</v>
       </c>
       <c r="F149" t="n">
-        <v>1679.2892</v>
+        <v>502.1047</v>
       </c>
       <c r="G149" t="n">
-        <v>887.4</v>
+        <v>896</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C150" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D150" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E150" t="n">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F150" t="n">
-        <v>88.7512</v>
+        <v>1679.2892</v>
       </c>
       <c r="G150" t="n">
-        <v>887.4</v>
+        <v>895.7833333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C151" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D151" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E151" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>88.7512</v>
       </c>
       <c r="G151" t="n">
-        <v>888.4</v>
+        <v>895.6333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C152" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D152" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E152" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F152" t="n">
-        <v>1231.8659</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>889.4</v>
+        <v>895.4666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C153" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D153" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E153" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F153" t="n">
-        <v>3093.5767</v>
+        <v>1231.8659</v>
       </c>
       <c r="G153" t="n">
-        <v>890.2</v>
+        <v>895.3333333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>891</v>
       </c>
       <c r="F154" t="n">
-        <v>208.8972</v>
+        <v>3093.5767</v>
       </c>
       <c r="G154" t="n">
-        <v>891</v>
+        <v>895.1833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="C155" t="n">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="D155" t="n">
         <v>891</v>
       </c>
       <c r="E155" t="n">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="F155" t="n">
-        <v>7926.9494</v>
+        <v>208.8972</v>
       </c>
       <c r="G155" t="n">
-        <v>889.8</v>
+        <v>895.0333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C156" t="n">
         <v>885</v>
       </c>
       <c r="D156" t="n">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="E156" t="n">
         <v>885</v>
       </c>
       <c r="F156" t="n">
-        <v>1703</v>
+        <v>7926.9494</v>
       </c>
       <c r="G156" t="n">
-        <v>888.8</v>
+        <v>894.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C157" t="n">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="D157" t="n">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E157" t="n">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F157" t="n">
-        <v>272.44</v>
+        <v>1703</v>
       </c>
       <c r="G157" t="n">
-        <v>888.6</v>
+        <v>894.45</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +5896,19 @@
         <v>891</v>
       </c>
       <c r="C158" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D158" t="n">
         <v>891</v>
       </c>
       <c r="E158" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F158" t="n">
-        <v>1769.6053</v>
+        <v>272.44</v>
       </c>
       <c r="G158" t="n">
-        <v>888.4</v>
+        <v>894.3666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>891</v>
       </c>
       <c r="C159" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D159" t="n">
         <v>891</v>
       </c>
       <c r="E159" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F159" t="n">
-        <v>237.75</v>
+        <v>1769.6053</v>
       </c>
       <c r="G159" t="n">
-        <v>888.4</v>
+        <v>894.1666666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>891</v>
       </c>
       <c r="F160" t="n">
-        <v>115</v>
+        <v>237.75</v>
       </c>
       <c r="G160" t="n">
-        <v>889.6</v>
+        <v>894.1833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C161" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D161" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E161" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F161" t="n">
-        <v>1446.8659</v>
+        <v>115</v>
       </c>
       <c r="G161" t="n">
-        <v>890.6</v>
+        <v>894.2333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C162" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D162" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E162" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F162" t="n">
-        <v>296.5</v>
+        <v>1446.8659</v>
       </c>
       <c r="G162" t="n">
-        <v>890.6</v>
+        <v>894.25</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>891</v>
       </c>
       <c r="F163" t="n">
-        <v>233.5165</v>
+        <v>296.5</v>
       </c>
       <c r="G163" t="n">
-        <v>890.8</v>
+        <v>894.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>891</v>
       </c>
       <c r="F164" t="n">
-        <v>77.59999999999999</v>
+        <v>233.5165</v>
       </c>
       <c r="G164" t="n">
-        <v>890.8</v>
+        <v>894.35</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>891</v>
       </c>
       <c r="F165" t="n">
-        <v>519.1674</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>890.8</v>
+        <v>894.3833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>891</v>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>519.1674</v>
       </c>
       <c r="G166" t="n">
-        <v>891</v>
+        <v>894.4833333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>891</v>
       </c>
       <c r="F167" t="n">
-        <v>51.6867</v>
+        <v>200</v>
       </c>
       <c r="G167" t="n">
-        <v>891</v>
+        <v>894.5833333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>891</v>
       </c>
       <c r="F168" t="n">
-        <v>400.8274</v>
+        <v>51.6867</v>
       </c>
       <c r="G168" t="n">
-        <v>891</v>
+        <v>894.6833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6281,19 +6281,19 @@
         <v>891</v>
       </c>
       <c r="C169" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D169" t="n">
         <v>891</v>
       </c>
       <c r="E169" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F169" t="n">
-        <v>749.3866</v>
+        <v>400.8274</v>
       </c>
       <c r="G169" t="n">
-        <v>890.8</v>
+        <v>894.8166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C170" t="n">
         <v>890</v>
       </c>
       <c r="D170" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E170" t="n">
         <v>890</v>
       </c>
       <c r="F170" t="n">
-        <v>325</v>
+        <v>749.3866</v>
       </c>
       <c r="G170" t="n">
-        <v>890.6</v>
+        <v>894.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C171" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D171" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E171" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F171" t="n">
-        <v>1690.8548</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
-        <v>890.6</v>
+        <v>894.7833333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C172" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D172" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E172" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F172" t="n">
-        <v>304.7298</v>
+        <v>1690.8548</v>
       </c>
       <c r="G172" t="n">
-        <v>890.4</v>
+        <v>894.75</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>890</v>
       </c>
       <c r="F173" t="n">
-        <v>2445</v>
+        <v>304.7298</v>
       </c>
       <c r="G173" t="n">
-        <v>890.2</v>
+        <v>894.7333333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C174" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D174" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E174" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="F174" t="n">
-        <v>88.28060000000001</v>
+        <v>2445</v>
       </c>
       <c r="G174" t="n">
-        <v>889.4</v>
+        <v>894.6833333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C175" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D175" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E175" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="F175" t="n">
-        <v>9450.117899999999</v>
+        <v>88.28060000000001</v>
       </c>
       <c r="G175" t="n">
-        <v>887.8</v>
+        <v>894.5666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>884</v>
+      </c>
+      <c r="C176" t="n">
         <v>882</v>
       </c>
-      <c r="C176" t="n">
-        <v>880</v>
-      </c>
       <c r="D176" t="n">
+        <v>884</v>
+      </c>
+      <c r="E176" t="n">
         <v>882</v>
       </c>
-      <c r="E176" t="n">
-        <v>880</v>
-      </c>
       <c r="F176" t="n">
-        <v>3148.3486</v>
+        <v>9450.117899999999</v>
       </c>
       <c r="G176" t="n">
-        <v>885.6</v>
+        <v>894.3833333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C177" t="n">
         <v>880</v>
       </c>
       <c r="D177" t="n">
+        <v>882</v>
+      </c>
+      <c r="E177" t="n">
         <v>880</v>
       </c>
-      <c r="E177" t="n">
-        <v>878</v>
-      </c>
       <c r="F177" t="n">
-        <v>2526.5773</v>
+        <v>3148.3486</v>
       </c>
       <c r="G177" t="n">
-        <v>883.6</v>
+        <v>894.2666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6602,13 +6602,13 @@
         <v>880</v>
       </c>
       <c r="E178" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F178" t="n">
-        <v>620.9082</v>
+        <v>2526.5773</v>
       </c>
       <c r="G178" t="n">
-        <v>881.6</v>
+        <v>894.0833333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>880</v>
       </c>
       <c r="F179" t="n">
-        <v>431.8951</v>
+        <v>620.9082</v>
       </c>
       <c r="G179" t="n">
-        <v>880.4</v>
+        <v>893.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C180" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D180" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E180" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F180" t="n">
-        <v>7497.1303</v>
+        <v>431.8951</v>
       </c>
       <c r="G180" t="n">
-        <v>879.8</v>
+        <v>893.4333333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C181" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D181" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E181" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F181" t="n">
-        <v>842.379</v>
+        <v>7497.1303</v>
       </c>
       <c r="G181" t="n">
-        <v>879.4</v>
+        <v>893.0166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6736,19 +6736,19 @@
         <v>878</v>
       </c>
       <c r="C182" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D182" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E182" t="n">
         <v>878</v>
       </c>
       <c r="F182" t="n">
-        <v>190</v>
+        <v>842.379</v>
       </c>
       <c r="G182" t="n">
-        <v>879.2</v>
+        <v>892.5833333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C183" t="n">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D183" t="n">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E183" t="n">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="F183" t="n">
-        <v>5722.3189</v>
+        <v>190</v>
       </c>
       <c r="G183" t="n">
-        <v>878.4</v>
+        <v>892.15</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="C184" t="n">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D184" t="n">
         <v>877</v>
       </c>
       <c r="E184" t="n">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F184" t="n">
-        <v>2457.9032</v>
+        <v>5722.3189</v>
       </c>
       <c r="G184" t="n">
-        <v>877.8</v>
+        <v>891.6833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="C185" t="n">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D185" t="n">
         <v>877</v>
       </c>
       <c r="E185" t="n">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="F185" t="n">
-        <v>18756.0909</v>
+        <v>2457.9032</v>
       </c>
       <c r="G185" t="n">
-        <v>876.6</v>
+        <v>891.2166666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C186" t="n">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D186" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E186" t="n">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="F186" t="n">
-        <v>190</v>
+        <v>18756.0909</v>
       </c>
       <c r="G186" t="n">
-        <v>876.8</v>
+        <v>890.6833333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6911,19 +6911,19 @@
         <v>879</v>
       </c>
       <c r="C187" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D187" t="n">
         <v>879</v>
       </c>
       <c r="E187" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="F187" t="n">
-        <v>1332.9578</v>
+        <v>190</v>
       </c>
       <c r="G187" t="n">
-        <v>876</v>
+        <v>890.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>879</v>
+      </c>
+      <c r="C188" t="n">
         <v>875</v>
       </c>
-      <c r="C188" t="n">
-        <v>878</v>
-      </c>
       <c r="D188" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E188" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F188" t="n">
-        <v>3878.9</v>
+        <v>1332.9578</v>
       </c>
       <c r="G188" t="n">
-        <v>876.4</v>
+        <v>889.8666666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C189" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D189" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E189" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F189" t="n">
-        <v>1794.2071</v>
+        <v>3878.9</v>
       </c>
       <c r="G189" t="n">
-        <v>876.8</v>
+        <v>889.4833333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C190" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D190" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E190" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F190" t="n">
-        <v>345.6495</v>
+        <v>1794.2071</v>
       </c>
       <c r="G190" t="n">
-        <v>877.8</v>
+        <v>889.1166666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>875</v>
+      </c>
+      <c r="C191" t="n">
         <v>878</v>
-      </c>
-      <c r="C191" t="n">
-        <v>876</v>
       </c>
       <c r="D191" t="n">
         <v>878</v>
       </c>
       <c r="E191" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F191" t="n">
-        <v>867.5944</v>
+        <v>345.6495</v>
       </c>
       <c r="G191" t="n">
-        <v>877.2</v>
+        <v>888.7333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C192" t="n">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D192" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E192" t="n">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F192" t="n">
-        <v>1285.7621</v>
+        <v>867.5944</v>
       </c>
       <c r="G192" t="n">
-        <v>878</v>
+        <v>888.3166666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C193" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D193" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E193" t="n">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F193" t="n">
-        <v>26.6535</v>
+        <v>1285.7621</v>
       </c>
       <c r="G193" t="n">
-        <v>878</v>
+        <v>887.95</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7156,19 +7156,19 @@
         <v>878</v>
       </c>
       <c r="C194" t="n">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D194" t="n">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E194" t="n">
         <v>878</v>
       </c>
       <c r="F194" t="n">
-        <v>714.987</v>
+        <v>26.6535</v>
       </c>
       <c r="G194" t="n">
-        <v>878.4</v>
+        <v>887.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C195" t="n">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D195" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E195" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F195" t="n">
-        <v>1756.3699</v>
+        <v>714.987</v>
       </c>
       <c r="G195" t="n">
-        <v>878.6</v>
+        <v>887.3166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C196" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D196" t="n">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E196" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F196" t="n">
-        <v>509.7049</v>
+        <v>1756.3699</v>
       </c>
       <c r="G196" t="n">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         <v>878</v>
       </c>
       <c r="F197" t="n">
-        <v>64.6895</v>
+        <v>509.7049</v>
       </c>
       <c r="G197" t="n">
-        <v>878.8</v>
+        <v>886.65</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7305,10 +7305,10 @@
         <v>878</v>
       </c>
       <c r="F198" t="n">
-        <v>192.6368</v>
+        <v>64.6895</v>
       </c>
       <c r="G198" t="n">
-        <v>878.8</v>
+        <v>886.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7331,19 +7331,19 @@
         <v>878</v>
       </c>
       <c r="C199" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D199" t="n">
         <v>878</v>
       </c>
       <c r="E199" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F199" t="n">
-        <v>2676.3376</v>
+        <v>192.6368</v>
       </c>
       <c r="G199" t="n">
-        <v>878</v>
+        <v>885.95</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7366,19 +7366,19 @@
         <v>878</v>
       </c>
       <c r="C200" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D200" t="n">
         <v>878</v>
       </c>
       <c r="E200" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F200" t="n">
-        <v>452.5892</v>
+        <v>2676.3376</v>
       </c>
       <c r="G200" t="n">
-        <v>877.4</v>
+        <v>885.5666666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C201" t="n">
+        <v>876</v>
+      </c>
+      <c r="D201" t="n">
         <v>878</v>
       </c>
-      <c r="D201" t="n">
-        <v>879</v>
-      </c>
       <c r="E201" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>452.5892</v>
       </c>
       <c r="G201" t="n">
-        <v>877.4</v>
+        <v>885.15</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C202" t="n">
         <v>878</v>
       </c>
       <c r="D202" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E202" t="n">
         <v>878</v>
       </c>
       <c r="F202" t="n">
-        <v>608.08</v>
+        <v>200</v>
       </c>
       <c r="G202" t="n">
-        <v>877.4</v>
+        <v>884.7833333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7480,10 @@
         <v>878</v>
       </c>
       <c r="F203" t="n">
-        <v>50</v>
+        <v>608.08</v>
       </c>
       <c r="G203" t="n">
-        <v>877.4</v>
+        <v>884.4666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C204" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D204" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E204" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F204" t="n">
-        <v>116.9</v>
+        <v>50</v>
       </c>
       <c r="G204" t="n">
-        <v>877.8</v>
+        <v>884.1833333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>879</v>
       </c>
       <c r="F205" t="n">
-        <v>399.033</v>
+        <v>116.9</v>
       </c>
       <c r="G205" t="n">
-        <v>878.4</v>
+        <v>883.9166666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C206" t="n">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D206" t="n">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E206" t="n">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F206" t="n">
-        <v>852</v>
+        <v>399.033</v>
       </c>
       <c r="G206" t="n">
-        <v>879.2</v>
+        <v>883.7166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C207" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D207" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E207" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F207" t="n">
-        <v>296.744</v>
+        <v>852</v>
       </c>
       <c r="G207" t="n">
-        <v>880.2</v>
+        <v>883.6666666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C208" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D208" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E208" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F208" t="n">
-        <v>1374.59</v>
+        <v>296.744</v>
       </c>
       <c r="G208" t="n">
-        <v>881</v>
+        <v>883.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7690,10 +7690,10 @@
         <v>882</v>
       </c>
       <c r="F209" t="n">
-        <v>1477.4156</v>
+        <v>1374.59</v>
       </c>
       <c r="G209" t="n">
-        <v>881.6</v>
+        <v>883.5166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C210" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D210" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E210" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="F210" t="n">
-        <v>1011.3581</v>
+        <v>1477.4156</v>
       </c>
       <c r="G210" t="n">
-        <v>882.4</v>
+        <v>883.4333333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C211" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D211" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E211" t="n">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F211" t="n">
-        <v>3</v>
+        <v>1011.3581</v>
       </c>
       <c r="G211" t="n">
-        <v>882.4</v>
+        <v>883.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C212" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D212" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E212" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="F212" t="n">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="G212" t="n">
-        <v>881.4</v>
+        <v>883.1666666666666</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C213" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D213" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E213" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F213" t="n">
-        <v>46.56</v>
+        <v>185</v>
       </c>
       <c r="G213" t="n">
-        <v>881</v>
+        <v>882.9333333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="C214" t="n">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="D214" t="n">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E214" t="n">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="F214" t="n">
-        <v>622.7209</v>
+        <v>46.56</v>
       </c>
       <c r="G214" t="n">
-        <v>879.2</v>
+        <v>882.75</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C215" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D215" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="E215" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F215" t="n">
-        <v>184</v>
+        <v>622.7209</v>
       </c>
       <c r="G215" t="n">
-        <v>876.8</v>
+        <v>882.45</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C216" t="n">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D216" t="n">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E216" t="n">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="F216" t="n">
-        <v>296.0021</v>
+        <v>184</v>
       </c>
       <c r="G216" t="n">
-        <v>873.4</v>
+        <v>882.2166666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C217" t="n">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="D217" t="n">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E217" t="n">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="F217" t="n">
-        <v>26.312</v>
+        <v>296.0021</v>
       </c>
       <c r="G217" t="n">
-        <v>872.2</v>
+        <v>881.8833333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C218" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D218" t="n">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E218" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="F218" t="n">
-        <v>222.5879</v>
+        <v>26.312</v>
       </c>
       <c r="G218" t="n">
-        <v>870.2</v>
+        <v>881.5666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C219" t="n">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="D219" t="n">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E219" t="n">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="F219" t="n">
-        <v>203.2231</v>
+        <v>222.5879</v>
       </c>
       <c r="G219" t="n">
-        <v>868.6</v>
+        <v>881.2333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="C220" t="n">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D220" t="n">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="E220" t="n">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="F220" t="n">
-        <v>120</v>
+        <v>203.2231</v>
       </c>
       <c r="G220" t="n">
-        <v>866.8</v>
+        <v>880.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C221" t="n">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D221" t="n">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E221" t="n">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F221" t="n">
-        <v>83.57040000000001</v>
+        <v>120</v>
       </c>
       <c r="G221" t="n">
-        <v>867.4</v>
+        <v>880.3166666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="C222" t="n">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D222" t="n">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="E222" t="n">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="F222" t="n">
-        <v>187.7668</v>
+        <v>83.57040000000001</v>
       </c>
       <c r="G222" t="n">
-        <v>865.8</v>
+        <v>879.95</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8171,19 +8171,19 @@
         <v>863</v>
       </c>
       <c r="C223" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D223" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E223" t="n">
         <v>863</v>
       </c>
       <c r="F223" t="n">
-        <v>16.9312</v>
+        <v>187.7668</v>
       </c>
       <c r="G223" t="n">
-        <v>864.4</v>
+        <v>879.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8206,19 +8206,19 @@
         <v>863</v>
       </c>
       <c r="C224" t="n">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="D224" t="n">
         <v>863</v>
       </c>
       <c r="E224" t="n">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="F224" t="n">
-        <v>3384.1396</v>
+        <v>16.9312</v>
       </c>
       <c r="G224" t="n">
-        <v>862.6</v>
+        <v>879.0333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C225" t="n">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D225" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E225" t="n">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F225" t="n">
-        <v>1.8561</v>
+        <v>3384.1396</v>
       </c>
       <c r="G225" t="n">
-        <v>862.6</v>
+        <v>878.45</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="C226" t="n">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="D226" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E226" t="n">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="F226" t="n">
-        <v>203.3767</v>
+        <v>1.8561</v>
       </c>
       <c r="G226" t="n">
-        <v>859.6</v>
+        <v>877.9666666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>854</v>
+      </c>
+      <c r="C227" t="n">
         <v>853</v>
-      </c>
-      <c r="C227" t="n">
-        <v>854</v>
       </c>
       <c r="D227" t="n">
         <v>854</v>
       </c>
       <c r="E227" t="n">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="F227" t="n">
-        <v>3263.8842</v>
+        <v>203.3767</v>
       </c>
       <c r="G227" t="n">
-        <v>857.6</v>
+        <v>877.3333333333334</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,7 +8343,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C228" t="n">
         <v>854</v>
@@ -8352,13 +8352,13 @@
         <v>854</v>
       </c>
       <c r="E228" t="n">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="F228" t="n">
-        <v>220</v>
+        <v>3263.8842</v>
       </c>
       <c r="G228" t="n">
-        <v>855.8</v>
+        <v>876.7166666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C229" t="n">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="D229" t="n">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="E229" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F229" t="n">
-        <v>1062.9746</v>
+        <v>220</v>
       </c>
       <c r="G229" t="n">
-        <v>857.6</v>
+        <v>876.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C230" t="n">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="D230" t="n">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E230" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F230" t="n">
-        <v>782.4632</v>
+        <v>1062.9746</v>
       </c>
       <c r="G230" t="n">
-        <v>856.8</v>
+        <v>875.6833333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C231" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D231" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E231" t="n">
         <v>858</v>
       </c>
       <c r="F231" t="n">
-        <v>188.1091</v>
+        <v>782.4632</v>
       </c>
       <c r="G231" t="n">
-        <v>858.8</v>
+        <v>875.15</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,32 +8483,38 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C232" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D232" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E232" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F232" t="n">
-        <v>148.5151</v>
+        <v>188.1091</v>
       </c>
       <c r="G232" t="n">
-        <v>860.2</v>
+        <v>874.6833333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>858</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8518,32 +8524,38 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C233" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D233" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E233" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F233" t="n">
-        <v>190</v>
+        <v>148.5151</v>
       </c>
       <c r="G233" t="n">
-        <v>862.2</v>
+        <v>874.2</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>863</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8553,7 +8565,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C234" t="n">
         <v>864</v>
@@ -8562,23 +8574,29 @@
         <v>864</v>
       </c>
       <c r="E234" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="F234" t="n">
-        <v>922.7418</v>
+        <v>190</v>
       </c>
       <c r="G234" t="n">
-        <v>862</v>
+        <v>873.7666666666667</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>861</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8591,29 +8609,35 @@
         <v>860</v>
       </c>
       <c r="C235" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D235" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="E235" t="n">
         <v>860</v>
       </c>
       <c r="F235" t="n">
-        <v>207.645</v>
+        <v>922.7418</v>
       </c>
       <c r="G235" t="n">
-        <v>862.4</v>
+        <v>873.4</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>864</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8623,32 +8647,38 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C236" t="n">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D236" t="n">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E236" t="n">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F236" t="n">
-        <v>52.816</v>
+        <v>207.645</v>
       </c>
       <c r="G236" t="n">
-        <v>862.4</v>
+        <v>873.0333333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>864</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8658,32 +8688,38 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C237" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D237" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E237" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F237" t="n">
-        <v>804.1852</v>
+        <v>52.816</v>
       </c>
       <c r="G237" t="n">
-        <v>863</v>
+        <v>872.75</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>860</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8693,32 +8729,38 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C238" t="n">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="D238" t="n">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E238" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F238" t="n">
-        <v>552.8484</v>
+        <v>804.1852</v>
       </c>
       <c r="G238" t="n">
-        <v>861.6</v>
+        <v>872.4833333333333</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>863</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8728,32 +8770,38 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C239" t="n">
+        <v>857</v>
+      </c>
+      <c r="D239" t="n">
         <v>858</v>
       </c>
-      <c r="D239" t="n">
-        <v>860</v>
-      </c>
       <c r="E239" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F239" t="n">
-        <v>525.6582</v>
+        <v>552.8484</v>
       </c>
       <c r="G239" t="n">
-        <v>860.4</v>
+        <v>872.1</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>864</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8763,36 +8811,36 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C240" t="n">
         <v>858</v>
       </c>
       <c r="D240" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E240" t="n">
         <v>858</v>
       </c>
       <c r="F240" t="n">
-        <v>1354.853</v>
+        <v>525.6582</v>
       </c>
       <c r="G240" t="n">
-        <v>860</v>
+        <v>871.7333333333333</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>858</v>
-      </c>
-      <c r="K240" t="n">
-        <v>858</v>
-      </c>
-      <c r="L240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8802,38 +8850,34 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C241" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D241" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E241" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F241" t="n">
-        <v>235</v>
+        <v>1354.853</v>
       </c>
       <c r="G241" t="n">
-        <v>860</v>
+        <v>871.3833333333333</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>858</v>
-      </c>
-      <c r="K241" t="n">
-        <v>858</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M241" t="n">
@@ -8845,38 +8889,34 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C242" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D242" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E242" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F242" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="G242" t="n">
-        <v>860</v>
+        <v>871.1333333333333</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>863</v>
-      </c>
-      <c r="K242" t="n">
-        <v>858</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M242" t="n">
@@ -8891,35 +8931,31 @@
         <v>864</v>
       </c>
       <c r="C243" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D243" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E243" t="n">
         <v>864</v>
       </c>
       <c r="F243" t="n">
-        <v>1233.4785</v>
+        <v>185</v>
       </c>
       <c r="G243" t="n">
-        <v>861.8</v>
+        <v>870.8833333333333</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>864</v>
-      </c>
-      <c r="K243" t="n">
-        <v>858</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M243" t="n">
@@ -8931,22 +8967,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>864</v>
+      </c>
+      <c r="C244" t="n">
         <v>866</v>
       </c>
-      <c r="C244" t="n">
-        <v>872</v>
-      </c>
       <c r="D244" t="n">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E244" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F244" t="n">
-        <v>603.7736</v>
+        <v>1233.4785</v>
       </c>
       <c r="G244" t="n">
-        <v>864.6</v>
+        <v>870.7166666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8955,9 +8991,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>858</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8972,22 +9006,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C245" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D245" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E245" t="n">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F245" t="n">
-        <v>1017.61626575</v>
+        <v>603.7736</v>
       </c>
       <c r="G245" t="n">
-        <v>867.6</v>
+        <v>870.6333333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8996,9 +9030,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>858</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9013,22 +9045,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C246" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D246" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E246" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F246" t="n">
-        <v>190</v>
+        <v>1017.61626575</v>
       </c>
       <c r="G246" t="n">
-        <v>869.2</v>
+        <v>870.6333333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9037,9 +9069,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>858</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9066,10 +9096,10 @@
         <v>871</v>
       </c>
       <c r="F247" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G247" t="n">
-        <v>870.6</v>
+        <v>870.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9078,9 +9108,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>858</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9098,19 +9126,19 @@
         <v>871</v>
       </c>
       <c r="C248" t="n">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D248" t="n">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E248" t="n">
         <v>871</v>
       </c>
       <c r="F248" t="n">
-        <v>406.35</v>
+        <v>180</v>
       </c>
       <c r="G248" t="n">
-        <v>871.8</v>
+        <v>870.4333333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9119,9 +9147,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>858</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9136,7 +9162,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C249" t="n">
         <v>872</v>
@@ -9145,13 +9171,13 @@
         <v>872</v>
       </c>
       <c r="E249" t="n">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F249" t="n">
-        <v>59.8864</v>
+        <v>406.35</v>
       </c>
       <c r="G249" t="n">
-        <v>871.8</v>
+        <v>870.3333333333334</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9160,9 +9186,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>858</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9177,22 +9201,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="C250" t="n">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="D250" t="n">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E250" t="n">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="F250" t="n">
-        <v>37.5726</v>
+        <v>59.8864</v>
       </c>
       <c r="G250" t="n">
-        <v>870.2</v>
+        <v>870.2166666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9201,9 +9225,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>858</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9230,10 +9252,10 @@
         <v>865</v>
       </c>
       <c r="F251" t="n">
-        <v>1732.0682</v>
+        <v>37.5726</v>
       </c>
       <c r="G251" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9242,9 +9264,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>858</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9271,10 +9291,10 @@
         <v>865</v>
       </c>
       <c r="F252" t="n">
-        <v>5</v>
+        <v>1732.0682</v>
       </c>
       <c r="G252" t="n">
-        <v>867.8</v>
+        <v>869.8166666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9283,9 +9303,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>858</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9303,19 +9321,19 @@
         <v>865</v>
       </c>
       <c r="C253" t="n">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D253" t="n">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E253" t="n">
         <v>865</v>
       </c>
       <c r="F253" t="n">
-        <v>201.8791</v>
+        <v>5</v>
       </c>
       <c r="G253" t="n">
-        <v>866.8</v>
+        <v>869.5833333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9324,9 +9342,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>858</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9341,22 +9357,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="C254" t="n">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D254" t="n">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E254" t="n">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="F254" t="n">
-        <v>538.8378</v>
+        <v>201.8791</v>
       </c>
       <c r="G254" t="n">
-        <v>866.8</v>
+        <v>869.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9365,9 +9381,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>858</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9382,22 +9396,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C255" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D255" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E255" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F255" t="n">
-        <v>805</v>
+        <v>538.8378</v>
       </c>
       <c r="G255" t="n">
-        <v>868.6</v>
+        <v>869.25</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9406,9 +9420,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>858</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9423,7 +9435,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C256" t="n">
         <v>874</v>
@@ -9432,13 +9444,13 @@
         <v>874</v>
       </c>
       <c r="E256" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F256" t="n">
-        <v>4.1239</v>
+        <v>805</v>
       </c>
       <c r="G256" t="n">
-        <v>870.4</v>
+        <v>869.1666666666666</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9447,9 +9459,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>858</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9464,22 +9474,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C257" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D257" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E257" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F257" t="n">
-        <v>13</v>
+        <v>4.1239</v>
       </c>
       <c r="G257" t="n">
-        <v>873.2</v>
+        <v>869.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9488,9 +9498,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>858</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9517,10 +9525,10 @@
         <v>879</v>
       </c>
       <c r="F258" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G258" t="n">
-        <v>875.6</v>
+        <v>869.1166666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9529,9 +9537,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>858</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9546,22 +9552,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C259" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D259" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E259" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F259" t="n">
-        <v>159.6427</v>
+        <v>100</v>
       </c>
       <c r="G259" t="n">
-        <v>877.4</v>
+        <v>869.1333333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9570,9 +9576,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>858</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,10 +9603,10 @@
         <v>881</v>
       </c>
       <c r="F260" t="n">
-        <v>73.84999999999999</v>
+        <v>159.6427</v>
       </c>
       <c r="G260" t="n">
-        <v>878.8</v>
+        <v>869.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9611,9 +9615,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>858</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9640,10 +9642,10 @@
         <v>881</v>
       </c>
       <c r="F261" t="n">
-        <v>84.2604</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="G261" t="n">
-        <v>880.2</v>
+        <v>869.2833333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9652,9 +9654,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>858</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9669,22 +9669,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C262" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D262" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E262" t="n">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="F262" t="n">
-        <v>120.1487</v>
+        <v>84.2604</v>
       </c>
       <c r="G262" t="n">
-        <v>880.4</v>
+        <v>869.3333333333334</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9693,9 +9693,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>858</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9710,7 +9708,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C263" t="n">
         <v>880</v>
@@ -9722,10 +9720,10 @@
         <v>875</v>
       </c>
       <c r="F263" t="n">
-        <v>219.961</v>
+        <v>120.1487</v>
       </c>
       <c r="G263" t="n">
-        <v>880.6</v>
+        <v>869.3666666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9734,9 +9732,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>858</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9751,7 +9747,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C264" t="n">
         <v>880</v>
@@ -9760,13 +9756,13 @@
         <v>880</v>
       </c>
       <c r="E264" t="n">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="F264" t="n">
-        <v>72.4462</v>
+        <v>219.961</v>
       </c>
       <c r="G264" t="n">
-        <v>880.4</v>
+        <v>869.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9775,9 +9771,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>858</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9804,10 +9798,10 @@
         <v>880</v>
       </c>
       <c r="F265" t="n">
-        <v>95.8847</v>
+        <v>72.4462</v>
       </c>
       <c r="G265" t="n">
-        <v>880.2</v>
+        <v>869.4166666666666</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9816,9 +9810,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>858</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9833,22 +9825,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C266" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D266" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E266" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F266" t="n">
-        <v>89.87990000000001</v>
+        <v>95.8847</v>
       </c>
       <c r="G266" t="n">
-        <v>880.2</v>
+        <v>869.4333333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9857,9 +9849,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>858</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,27 +9876,58 @@
         <v>881</v>
       </c>
       <c r="F267" t="n">
-        <v>479.9999</v>
+        <v>89.87990000000001</v>
       </c>
       <c r="G267" t="n">
-        <v>880.4</v>
+        <v>869.4166666666666</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>858</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>881</v>
+      </c>
+      <c r="C268" t="n">
+        <v>881</v>
+      </c>
+      <c r="D268" t="n">
+        <v>881</v>
+      </c>
+      <c r="E268" t="n">
+        <v>881</v>
+      </c>
+      <c r="F268" t="n">
+        <v>479.9999</v>
+      </c>
+      <c r="G268" t="n">
+        <v>869.3833333333333</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-26 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:N278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2235.2652</v>
       </c>
       <c r="G2" t="n">
+        <v>902.4666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>887.6833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>539.4674</v>
       </c>
       <c r="G3" t="n">
+        <v>903.5333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>888.15</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>190.44</v>
       </c>
       <c r="G4" t="n">
+        <v>904.0666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>888.6166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1743.5976</v>
       </c>
       <c r="G5" t="n">
+        <v>904.9333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>889.0833333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2380.5029</v>
       </c>
       <c r="G6" t="n">
+        <v>904.6666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>889.3166666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>9.109999999999999</v>
       </c>
       <c r="G7" t="n">
+        <v>904.2666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>889.5333333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>140.76</v>
       </c>
       <c r="G8" t="n">
+        <v>904.2666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>889.8833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3414.8137</v>
       </c>
       <c r="G9" t="n">
+        <v>904.2666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>890.2333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1165.0039</v>
       </c>
       <c r="G10" t="n">
+        <v>904.0666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>890.55</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>80.297</v>
       </c>
       <c r="G11" t="n">
+        <v>903.0666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>890.7666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1489.625</v>
       </c>
       <c r="G12" t="n">
+        <v>902.0666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>890.9666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>94.029</v>
       </c>
       <c r="G13" t="n">
+        <v>900.4666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>891.2166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>899.2666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>891.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>898.1333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>891.8166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>252.9811</v>
       </c>
       <c r="G16" t="n">
+        <v>897</v>
+      </c>
+      <c r="H16" t="n">
         <v>892.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>686.1355</v>
       </c>
       <c r="G17" t="n">
+        <v>896</v>
+      </c>
+      <c r="H17" t="n">
         <v>892.6666666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>274.6851</v>
       </c>
       <c r="G18" t="n">
+        <v>894.7333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>893.0833333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>893.2556</v>
       </c>
       <c r="G19" t="n">
+        <v>893.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>893.4</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>351.5711</v>
       </c>
       <c r="G20" t="n">
+        <v>892.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>893.6</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>7553.5053</v>
       </c>
       <c r="G21" t="n">
+        <v>892.9333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>893.7666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>45.8728</v>
       </c>
       <c r="G22" t="n">
+        <v>893.5333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>894.1166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>17152.9407</v>
       </c>
       <c r="G23" t="n">
+        <v>894.1333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>894.5666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>3538.1688</v>
       </c>
       <c r="G24" t="n">
+        <v>894.8</v>
+      </c>
+      <c r="H24" t="n">
         <v>895.0833333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>11237.5503</v>
       </c>
       <c r="G25" t="n">
+        <v>895.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>895.6333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>8424.026099999999</v>
       </c>
       <c r="G26" t="n">
+        <v>896.7333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>896.0666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1768.9711</v>
       </c>
       <c r="G27" t="n">
+        <v>898.2</v>
+      </c>
+      <c r="H27" t="n">
         <v>896.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2319.7007</v>
       </c>
       <c r="G28" t="n">
+        <v>899.6666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>896.9</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>3330.3799</v>
       </c>
       <c r="G29" t="n">
+        <v>901.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>897.4</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>11773.1923</v>
       </c>
       <c r="G30" t="n">
+        <v>902.3333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>897.9</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>575</v>
       </c>
       <c r="G31" t="n">
+        <v>903.6</v>
+      </c>
+      <c r="H31" t="n">
         <v>898.3333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>260</v>
       </c>
       <c r="G32" t="n">
+        <v>904.6666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>898.7</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>3115</v>
       </c>
       <c r="G33" t="n">
+        <v>905.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>899.05</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>14130.0826</v>
       </c>
       <c r="G34" t="n">
+        <v>906.9333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>899.4</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2518.2675</v>
       </c>
       <c r="G35" t="n">
+        <v>908.1333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>899.7666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>31.3859</v>
       </c>
       <c r="G36" t="n">
+        <v>909.4</v>
+      </c>
+      <c r="H36" t="n">
         <v>900.1666666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>459.3023</v>
       </c>
       <c r="G37" t="n">
+        <v>910.4</v>
+      </c>
+      <c r="H37" t="n">
         <v>900.5666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>711.5916</v>
       </c>
       <c r="G38" t="n">
+        <v>910.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>900.95</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>855.1924</v>
       </c>
       <c r="G39" t="n">
+        <v>911.5333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>901.3333333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1695.8831</v>
       </c>
       <c r="G40" t="n">
+        <v>911.6</v>
+      </c>
+      <c r="H40" t="n">
         <v>901.6333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>41.5652</v>
       </c>
       <c r="G41" t="n">
+        <v>912.2666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>901.9666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1.5745</v>
       </c>
       <c r="G42" t="n">
+        <v>912.3333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>902.2833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>442.464</v>
       </c>
       <c r="G43" t="n">
+        <v>912.4666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>902.6</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>407.5273</v>
       </c>
       <c r="G44" t="n">
+        <v>912.7333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>902.9666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>56.7305</v>
       </c>
       <c r="G45" t="n">
+        <v>912.8</v>
+      </c>
+      <c r="H45" t="n">
         <v>903.4166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>802.7203</v>
       </c>
       <c r="G46" t="n">
+        <v>912.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>903.75</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>344.52</v>
       </c>
       <c r="G47" t="n">
+        <v>913.2666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>904.1</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1426.1673</v>
       </c>
       <c r="G48" t="n">
+        <v>913.6666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>904.4166666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>395.2936</v>
       </c>
       <c r="G49" t="n">
+        <v>914.1333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>904.75</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>905.6757</v>
       </c>
       <c r="G50" t="n">
+        <v>915.1333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>905.25</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>755.9906</v>
       </c>
       <c r="G51" t="n">
+        <v>915.8</v>
+      </c>
+      <c r="H51" t="n">
         <v>905.7</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1270.6647</v>
       </c>
       <c r="G52" t="n">
+        <v>916.6</v>
+      </c>
+      <c r="H52" t="n">
         <v>906.2</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>339.1822</v>
       </c>
       <c r="G53" t="n">
+        <v>917.6666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>906.75</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1382.571</v>
       </c>
       <c r="G54" t="n">
+        <v>918.4666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>907.2666666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>4048.9437</v>
       </c>
       <c r="G55" t="n">
+        <v>919.4666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>907.7333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>5866.0851</v>
       </c>
       <c r="G56" t="n">
+        <v>920.0666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>908.0333333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1716.704</v>
       </c>
       <c r="G57" t="n">
+        <v>920.7333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>908.3333333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2781.4523</v>
       </c>
       <c r="G58" t="n">
+        <v>920.5333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>908.2833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>50</v>
       </c>
       <c r="G59" t="n">
+        <v>920.0666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>908.2833333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>899.1464999999999</v>
       </c>
       <c r="G60" t="n">
+        <v>919.4666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>908.1833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>395.6922</v>
       </c>
       <c r="G61" t="n">
+        <v>919.8666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>908.35</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>903</v>
       </c>
       <c r="G62" t="n">
+        <v>919.2</v>
+      </c>
+      <c r="H62" t="n">
         <v>908.2833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>320</v>
       </c>
       <c r="G63" t="n">
+        <v>918.4666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>908.15</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>339.1195</v>
       </c>
       <c r="G64" t="n">
+        <v>917.6</v>
+      </c>
+      <c r="H64" t="n">
         <v>908.1333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>22.7479</v>
       </c>
       <c r="G65" t="n">
+        <v>916.4666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>908.1333333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>2924.5049</v>
       </c>
       <c r="G66" t="n">
+        <v>915.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>908.4333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>20.4444</v>
       </c>
       <c r="G67" t="n">
+        <v>914.4666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>908.75</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
+        <v>913.4</v>
+      </c>
+      <c r="H68" t="n">
         <v>909.0333333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>255</v>
       </c>
       <c r="G69" t="n">
+        <v>912.1333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>909.2333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>77.6036</v>
       </c>
       <c r="G70" t="n">
+        <v>911</v>
+      </c>
+      <c r="H70" t="n">
         <v>909.4666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>13.4222</v>
       </c>
       <c r="G71" t="n">
+        <v>910.1333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>909.8</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>2443.4971</v>
       </c>
       <c r="G72" t="n">
+        <v>909.3333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>910.15</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>275.34653465</v>
       </c>
       <c r="G73" t="n">
+        <v>909.2666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>910.4833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>711.1211</v>
       </c>
       <c r="G74" t="n">
+        <v>908.2</v>
+      </c>
+      <c r="H74" t="n">
         <v>910.5166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>348.7584</v>
       </c>
       <c r="G75" t="n">
+        <v>907.2</v>
+      </c>
+      <c r="H75" t="n">
         <v>910.45</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>65.7212</v>
       </c>
       <c r="G76" t="n">
+        <v>905.6666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>910.5166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>133.8781</v>
       </c>
       <c r="G77" t="n">
+        <v>905</v>
+      </c>
+      <c r="H77" t="n">
         <v>910.5333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
+        <v>904.9333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>910.7</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>864.0496000000001</v>
       </c>
       <c r="G79" t="n">
+        <v>904.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>910.7333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>903.9333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>910.9166666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>635.024</v>
       </c>
       <c r="G81" t="n">
+        <v>903.2</v>
+      </c>
+      <c r="H81" t="n">
         <v>911</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>27.6585</v>
       </c>
       <c r="G82" t="n">
+        <v>902.9333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>911.1</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1289.3282</v>
       </c>
       <c r="G83" t="n">
+        <v>901.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>910.95</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>2812.0635</v>
       </c>
       <c r="G84" t="n">
+        <v>901.7333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>910.9666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>662.4471</v>
       </c>
       <c r="G85" t="n">
+        <v>901.4</v>
+      </c>
+      <c r="H85" t="n">
         <v>910.8666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1212.8891</v>
       </c>
       <c r="G86" t="n">
+        <v>901.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>910.8833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>1817.2986</v>
       </c>
       <c r="G87" t="n">
+        <v>900.6</v>
+      </c>
+      <c r="H87" t="n">
         <v>910.75</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>1451.764</v>
       </c>
       <c r="G88" t="n">
+        <v>900.1333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>910.6</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>4053.628</v>
       </c>
       <c r="G89" t="n">
+        <v>900.6</v>
+      </c>
+      <c r="H89" t="n">
         <v>910.4</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>410</v>
       </c>
       <c r="G90" t="n">
+        <v>901.3333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>910.2</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>567</v>
       </c>
       <c r="G91" t="n">
+        <v>901.5333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>910</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1991.71933701</v>
       </c>
       <c r="G92" t="n">
+        <v>901.8</v>
+      </c>
+      <c r="H92" t="n">
         <v>909.8166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>125</v>
       </c>
       <c r="G93" t="n">
+        <v>901.4666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>909.6333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>361.1989</v>
       </c>
       <c r="G94" t="n">
+        <v>901.8</v>
+      </c>
+      <c r="H94" t="n">
         <v>909.45</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>25</v>
       </c>
       <c r="G95" t="n">
+        <v>901.5333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>909.2666666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>107.0308</v>
       </c>
       <c r="G96" t="n">
+        <v>902</v>
+      </c>
+      <c r="H96" t="n">
         <v>909.15</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>130.6083</v>
       </c>
       <c r="G97" t="n">
+        <v>901.6666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>908.9166666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>50</v>
       </c>
       <c r="G98" t="n">
+        <v>901.5333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>908.6</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>2482.0311</v>
       </c>
       <c r="G99" t="n">
+        <v>901.0666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>908.35</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>726.9732</v>
       </c>
       <c r="G100" t="n">
+        <v>900.1333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>908</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>166.3026</v>
       </c>
       <c r="G101" t="n">
+        <v>899.0666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>907.5833333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>25</v>
       </c>
       <c r="G102" t="n">
+        <v>898.1333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>907.2</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>7.9903</v>
       </c>
       <c r="G103" t="n">
+        <v>897.2</v>
+      </c>
+      <c r="H103" t="n">
         <v>906.7833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>142.419</v>
       </c>
       <c r="G104" t="n">
+        <v>896.4</v>
+      </c>
+      <c r="H104" t="n">
         <v>906.3166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>115.5608</v>
       </c>
       <c r="G105" t="n">
+        <v>895.6666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>905.9166666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>137.9088</v>
       </c>
       <c r="G106" t="n">
+        <v>894.6666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>905.4333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>89.4584</v>
       </c>
       <c r="G107" t="n">
+        <v>893.6666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>904.9166666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>63.2768</v>
       </c>
       <c r="G108" t="n">
+        <v>892.6666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>904.3833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>6.3672</v>
       </c>
       <c r="G109" t="n">
+        <v>891.5333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>903.8</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>4181.0947</v>
       </c>
       <c r="G110" t="n">
+        <v>890.9333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>903.2166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>25</v>
       </c>
       <c r="G111" t="n">
+        <v>890</v>
+      </c>
+      <c r="H111" t="n">
         <v>902.7</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>24.4474</v>
       </c>
       <c r="G112" t="n">
+        <v>889.5333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>902.15</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>674.0302</v>
       </c>
       <c r="G113" t="n">
+        <v>889.2</v>
+      </c>
+      <c r="H113" t="n">
         <v>901.4833333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>389.238</v>
       </c>
       <c r="G114" t="n">
+        <v>888.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>900.8833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>104.5245</v>
       </c>
       <c r="G115" t="n">
+        <v>888.8</v>
+      </c>
+      <c r="H115" t="n">
         <v>900.3333333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>108.1044</v>
       </c>
       <c r="G116" t="n">
+        <v>889.1333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>899.85</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>2559.0774</v>
       </c>
       <c r="G117" t="n">
+        <v>889</v>
+      </c>
+      <c r="H117" t="n">
         <v>899.2666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>221.3573</v>
       </c>
       <c r="G118" t="n">
+        <v>889.2</v>
+      </c>
+      <c r="H118" t="n">
         <v>898.95</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>35.428</v>
       </c>
       <c r="G119" t="n">
+        <v>889.8</v>
+      </c>
+      <c r="H119" t="n">
         <v>898.75</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>150</v>
       </c>
       <c r="G120" t="n">
+        <v>890.6666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>898.7166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>867.679</v>
       </c>
       <c r="G121" t="n">
+        <v>891.9333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>898.45</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>142.8472</v>
       </c>
       <c r="G122" t="n">
+        <v>893.2</v>
+      </c>
+      <c r="H122" t="n">
         <v>898.4166666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>802.9374</v>
       </c>
       <c r="G123" t="n">
+        <v>894.5333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>898.4</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>110.07</v>
       </c>
       <c r="G124" t="n">
+        <v>895.9333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>898.3833333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>212.9136</v>
       </c>
       <c r="G125" t="n">
+        <v>896.8666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>898.3166666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>892.0587</v>
       </c>
       <c r="G126" t="n">
+        <v>897.8</v>
+      </c>
+      <c r="H126" t="n">
         <v>898.25</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>24.8156</v>
       </c>
       <c r="G127" t="n">
+        <v>898.4</v>
+      </c>
+      <c r="H127" t="n">
         <v>898.1333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>238.5828</v>
       </c>
       <c r="G128" t="n">
+        <v>899.0666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>897.9</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>825</v>
       </c>
       <c r="G129" t="n">
+        <v>899.6</v>
+      </c>
+      <c r="H129" t="n">
         <v>897.75</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>1077.0636</v>
       </c>
       <c r="G130" t="n">
+        <v>900.1333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>897.6166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>75</v>
       </c>
       <c r="G131" t="n">
+        <v>900.6666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>897.4833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>325</v>
       </c>
       <c r="G132" t="n">
+        <v>901.6</v>
+      </c>
+      <c r="H132" t="n">
         <v>897.3333333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>1505.8042</v>
       </c>
       <c r="G133" t="n">
+        <v>902.2666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>897.2</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>850.0074</v>
       </c>
       <c r="G134" t="n">
+        <v>902.4</v>
+      </c>
+      <c r="H134" t="n">
         <v>897.3</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>82.26000000000001</v>
       </c>
       <c r="G135" t="n">
+        <v>902.1333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>897.45</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>17.74</v>
       </c>
       <c r="G136" t="n">
+        <v>901.7333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>897.4666666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>4874.4491</v>
       </c>
       <c r="G137" t="n">
+        <v>901.4</v>
+      </c>
+      <c r="H137" t="n">
         <v>897.5166666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>634.9299999999999</v>
       </c>
       <c r="G138" t="n">
+        <v>901</v>
+      </c>
+      <c r="H138" t="n">
         <v>897.4166666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>100</v>
       </c>
       <c r="G139" t="n">
+        <v>900.6666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>897.4833333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>263.3618</v>
       </c>
       <c r="G140" t="n">
+        <v>900.3333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>897.4166666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>675.8523</v>
       </c>
       <c r="G141" t="n">
+        <v>900.0666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>897.4666666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>30</v>
       </c>
       <c r="G142" t="n">
+        <v>899.9333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>897.3833333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>6</v>
       </c>
       <c r="G143" t="n">
+        <v>899.6666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>897.3666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>9.99</v>
       </c>
       <c r="G144" t="n">
+        <v>899.2666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>897.1333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>30.4536</v>
       </c>
       <c r="G145" t="n">
+        <v>898.8666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>896.9833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>325.3803</v>
       </c>
       <c r="G146" t="n">
+        <v>898.2</v>
+      </c>
+      <c r="H146" t="n">
         <v>896.7666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>1300</v>
       </c>
       <c r="G147" t="n">
+        <v>897.1333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>896.4666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>1219.8703</v>
       </c>
       <c r="G148" t="n">
+        <v>896.2</v>
+      </c>
+      <c r="H148" t="n">
         <v>896.2166666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>502.1047</v>
       </c>
       <c r="G149" t="n">
+        <v>895.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>896</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>1679.2892</v>
       </c>
       <c r="G150" t="n">
+        <v>894.6666666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>895.7833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>88.7512</v>
       </c>
       <c r="G151" t="n">
+        <v>894.2</v>
+      </c>
+      <c r="H151" t="n">
         <v>895.6333333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>2</v>
       </c>
       <c r="G152" t="n">
+        <v>893.6</v>
+      </c>
+      <c r="H152" t="n">
         <v>895.4666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>1231.8659</v>
       </c>
       <c r="G153" t="n">
+        <v>893.1333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>895.3333333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>3093.5767</v>
       </c>
       <c r="G154" t="n">
+        <v>892.6</v>
+      </c>
+      <c r="H154" t="n">
         <v>895.1833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>208.8972</v>
       </c>
       <c r="G155" t="n">
+        <v>892</v>
+      </c>
+      <c r="H155" t="n">
         <v>895.0333333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>7926.9494</v>
       </c>
       <c r="G156" t="n">
+        <v>890.9333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>894.7</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>1703</v>
       </c>
       <c r="G157" t="n">
+        <v>889.9333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>894.45</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>272.44</v>
       </c>
       <c r="G158" t="n">
+        <v>889.5333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>894.3666666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>1769.6053</v>
       </c>
       <c r="G159" t="n">
+        <v>889.2</v>
+      </c>
+      <c r="H159" t="n">
         <v>894.1666666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>237.75</v>
       </c>
       <c r="G160" t="n">
+        <v>888.9333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>894.1833333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>115</v>
       </c>
       <c r="G161" t="n">
+        <v>888.9333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>894.2333333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>1446.8659</v>
       </c>
       <c r="G162" t="n">
+        <v>889.2666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>894.25</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>296.5</v>
       </c>
       <c r="G163" t="n">
+        <v>889.5333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>894.3</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>233.5165</v>
       </c>
       <c r="G164" t="n">
+        <v>889.8</v>
+      </c>
+      <c r="H164" t="n">
         <v>894.35</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>77.59999999999999</v>
       </c>
       <c r="G165" t="n">
+        <v>890.0666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>894.3833333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>519.1674</v>
       </c>
       <c r="G166" t="n">
+        <v>890.0666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>894.4833333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>200</v>
       </c>
       <c r="G167" t="n">
+        <v>890.1333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>894.5833333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>51.6867</v>
       </c>
       <c r="G168" t="n">
+        <v>890.0666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>894.6833333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>400.8274</v>
       </c>
       <c r="G169" t="n">
+        <v>890.0666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>894.8166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>749.3866</v>
       </c>
       <c r="G170" t="n">
+        <v>890</v>
+      </c>
+      <c r="H170" t="n">
         <v>894.8</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>325</v>
       </c>
       <c r="G171" t="n">
+        <v>890.3333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>894.7833333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>1690.8548</v>
       </c>
       <c r="G172" t="n">
+        <v>890.7333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>894.75</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>304.7298</v>
       </c>
       <c r="G173" t="n">
+        <v>890.6666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>894.7333333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>2445</v>
       </c>
       <c r="G174" t="n">
+        <v>890.6666666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>894.6833333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>88.28060000000001</v>
       </c>
       <c r="G175" t="n">
+        <v>890.3333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>894.5666666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>9450.117899999999</v>
       </c>
       <c r="G176" t="n">
+        <v>889.7333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>894.3833333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>3148.3486</v>
       </c>
       <c r="G177" t="n">
+        <v>889.0666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>894.2666666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>2526.5773</v>
       </c>
       <c r="G178" t="n">
+        <v>888.3333333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>894.0833333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>620.9082</v>
       </c>
       <c r="G179" t="n">
+        <v>887.6</v>
+      </c>
+      <c r="H179" t="n">
         <v>893.8</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>431.8951</v>
       </c>
       <c r="G180" t="n">
+        <v>886.8666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>893.4333333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>7497.1303</v>
       </c>
       <c r="G181" t="n">
+        <v>886.0666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>893.0166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>842.379</v>
       </c>
       <c r="G182" t="n">
+        <v>885.2</v>
+      </c>
+      <c r="H182" t="n">
         <v>892.5833333333334</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>190</v>
       </c>
       <c r="G183" t="n">
+        <v>884.4</v>
+      </c>
+      <c r="H183" t="n">
         <v>892.15</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>5722.3189</v>
       </c>
       <c r="G184" t="n">
+        <v>883.4</v>
+      </c>
+      <c r="H184" t="n">
         <v>891.6833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>2457.9032</v>
       </c>
       <c r="G185" t="n">
+        <v>882.5333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>891.2166666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,27 @@
         <v>18756.0909</v>
       </c>
       <c r="G186" t="n">
+        <v>881.4</v>
+      </c>
+      <c r="H186" t="n">
         <v>890.6833333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>877</v>
+      </c>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7489,25 @@
         <v>190</v>
       </c>
       <c r="G187" t="n">
+        <v>880.6</v>
+      </c>
+      <c r="H187" t="n">
         <v>890.3</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7531,25 @@
         <v>1332.9578</v>
       </c>
       <c r="G188" t="n">
+        <v>879.6</v>
+      </c>
+      <c r="H188" t="n">
         <v>889.8666666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7573,25 @@
         <v>3878.9</v>
       </c>
       <c r="G189" t="n">
+        <v>878.8</v>
+      </c>
+      <c r="H189" t="n">
         <v>889.4833333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7615,25 @@
         <v>1794.2071</v>
       </c>
       <c r="G190" t="n">
+        <v>878.3333333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>889.1166666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7657,25 @@
         <v>345.6495</v>
       </c>
       <c r="G191" t="n">
+        <v>878.0666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>888.7333333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7699,25 @@
         <v>867.5944</v>
       </c>
       <c r="G192" t="n">
+        <v>877.8</v>
+      </c>
+      <c r="H192" t="n">
         <v>888.3166666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7741,25 @@
         <v>1285.7621</v>
       </c>
       <c r="G193" t="n">
+        <v>877.7333333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>887.95</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7783,25 @@
         <v>26.6535</v>
       </c>
       <c r="G194" t="n">
+        <v>877.6</v>
+      </c>
+      <c r="H194" t="n">
         <v>887.6</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7825,25 @@
         <v>714.987</v>
       </c>
       <c r="G195" t="n">
+        <v>877.6666666666666</v>
+      </c>
+      <c r="H195" t="n">
         <v>887.3166666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7867,27 @@
         <v>1756.3699</v>
       </c>
       <c r="G196" t="n">
+        <v>877.6666666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>887</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>881</v>
+      </c>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7911,27 @@
         <v>509.7049</v>
       </c>
       <c r="G197" t="n">
+        <v>877.6666666666666</v>
+      </c>
+      <c r="H197" t="n">
         <v>886.65</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>879</v>
+      </c>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7955,27 @@
         <v>64.6895</v>
       </c>
       <c r="G198" t="n">
+        <v>877.6</v>
+      </c>
+      <c r="H198" t="n">
         <v>886.3</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>878</v>
+      </c>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7999,25 @@
         <v>192.6368</v>
       </c>
       <c r="G199" t="n">
+        <v>877.7333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>885.95</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8041,27 @@
         <v>2676.3376</v>
       </c>
       <c r="G200" t="n">
+        <v>877.7333333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>885.5666666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>878</v>
+      </c>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8085,27 @@
         <v>452.5892</v>
       </c>
       <c r="G201" t="n">
+        <v>877.9333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>885.15</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>877</v>
+      </c>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8129,27 @@
         <v>200</v>
       </c>
       <c r="G202" t="n">
+        <v>877.8666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>884.7833333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>876</v>
+      </c>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8173,25 @@
         <v>608.08</v>
       </c>
       <c r="G203" t="n">
+        <v>878.0666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>884.4666666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8215,25 @@
         <v>50</v>
       </c>
       <c r="G204" t="n">
+        <v>878.0666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>884.1833333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8257,25 @@
         <v>116.9</v>
       </c>
       <c r="G205" t="n">
+        <v>878.0666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>883.9166666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8299,25 @@
         <v>399.033</v>
       </c>
       <c r="G206" t="n">
+        <v>878.1333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>883.7166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8341,25 @@
         <v>852</v>
       </c>
       <c r="G207" t="n">
+        <v>878.5333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>883.6666666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8383,25 @@
         <v>296.744</v>
       </c>
       <c r="G208" t="n">
+        <v>878.8</v>
+      </c>
+      <c r="H208" t="n">
         <v>883.6</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8425,25 @@
         <v>1374.59</v>
       </c>
       <c r="G209" t="n">
+        <v>879.0666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>883.5166666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8467,25 @@
         <v>1477.4156</v>
       </c>
       <c r="G210" t="n">
+        <v>879.1333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>883.4333333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8509,25 @@
         <v>1011.3581</v>
       </c>
       <c r="G211" t="n">
+        <v>879.4</v>
+      </c>
+      <c r="H211" t="n">
         <v>883.3</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8551,25 @@
         <v>3</v>
       </c>
       <c r="G212" t="n">
+        <v>879.6666666666666</v>
+      </c>
+      <c r="H212" t="n">
         <v>883.1666666666666</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8593,25 @@
         <v>185</v>
       </c>
       <c r="G213" t="n">
+        <v>879.6666666666666</v>
+      </c>
+      <c r="H213" t="n">
         <v>882.9333333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8635,25 @@
         <v>46.56</v>
       </c>
       <c r="G214" t="n">
+        <v>879.8</v>
+      </c>
+      <c r="H214" t="n">
         <v>882.75</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8677,25 @@
         <v>622.7209</v>
       </c>
       <c r="G215" t="n">
+        <v>879.5333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>882.45</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8719,25 @@
         <v>184</v>
       </c>
       <c r="G216" t="n">
+        <v>879.2</v>
+      </c>
+      <c r="H216" t="n">
         <v>882.2166666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8761,25 @@
         <v>296.0021</v>
       </c>
       <c r="G217" t="n">
+        <v>878.3333333333334</v>
+      </c>
+      <c r="H217" t="n">
         <v>881.8833333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8803,25 @@
         <v>26.312</v>
       </c>
       <c r="G218" t="n">
+        <v>877.9333333333333</v>
+      </c>
+      <c r="H218" t="n">
         <v>881.5666666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8845,25 @@
         <v>222.5879</v>
       </c>
       <c r="G219" t="n">
+        <v>877.4</v>
+      </c>
+      <c r="H219" t="n">
         <v>881.2333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8887,25 @@
         <v>203.2231</v>
       </c>
       <c r="G220" t="n">
+        <v>876.4666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>880.8</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8929,25 @@
         <v>120</v>
       </c>
       <c r="G221" t="n">
+        <v>875.3333333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>880.3166666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8971,25 @@
         <v>83.57040000000001</v>
       </c>
       <c r="G222" t="n">
+        <v>874.4</v>
+      </c>
+      <c r="H222" t="n">
         <v>879.95</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +9013,25 @@
         <v>187.7668</v>
       </c>
       <c r="G223" t="n">
+        <v>873.1333333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>879.5</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +9055,25 @@
         <v>16.9312</v>
       </c>
       <c r="G224" t="n">
+        <v>871.8666666666667</v>
+      </c>
+      <c r="H224" t="n">
         <v>879.0333333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +9097,25 @@
         <v>3384.1396</v>
       </c>
       <c r="G225" t="n">
+        <v>870.1333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>878.45</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +9139,25 @@
         <v>1.8561</v>
       </c>
       <c r="G226" t="n">
+        <v>868.7333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>877.9666666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9181,25 @@
         <v>203.3767</v>
       </c>
       <c r="G227" t="n">
+        <v>866.8</v>
+      </c>
+      <c r="H227" t="n">
         <v>877.3333333333334</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9223,25 @@
         <v>3263.8842</v>
       </c>
       <c r="G228" t="n">
+        <v>865.2</v>
+      </c>
+      <c r="H228" t="n">
         <v>876.7166666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9265,27 @@
         <v>220</v>
       </c>
       <c r="G229" t="n">
+        <v>863.4666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>876.1</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>854</v>
+      </c>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9309,27 @@
         <v>1062.9746</v>
       </c>
       <c r="G230" t="n">
+        <v>862.9333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>875.6833333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>854</v>
+      </c>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9353,27 @@
         <v>782.4632</v>
       </c>
       <c r="G231" t="n">
+        <v>862.0666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>875.15</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>865</v>
+      </c>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,24 +9397,27 @@
         <v>188.1091</v>
       </c>
       <c r="G232" t="n">
+        <v>861.9333333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>874.6833333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
         <v>858</v>
       </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8539,24 +9441,27 @@
         <v>148.5151</v>
       </c>
       <c r="G233" t="n">
+        <v>861.2</v>
+      </c>
+      <c r="H233" t="n">
         <v>874.2</v>
       </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
         <v>863</v>
       </c>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8580,24 +9485,27 @@
         <v>190</v>
       </c>
       <c r="G234" t="n">
+        <v>860.8</v>
+      </c>
+      <c r="H234" t="n">
         <v>873.7666666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
         <v>861</v>
       </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8621,24 +9529,27 @@
         <v>922.7418</v>
       </c>
       <c r="G235" t="n">
+        <v>860.7333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>873.4</v>
       </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
         <v>864</v>
       </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8662,24 +9573,25 @@
         <v>207.645</v>
       </c>
       <c r="G236" t="n">
+        <v>860.6</v>
+      </c>
+      <c r="H236" t="n">
         <v>873.0333333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8703,24 +9615,25 @@
         <v>52.816</v>
       </c>
       <c r="G237" t="n">
+        <v>860.2666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>872.75</v>
       </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8744,24 +9657,27 @@
         <v>804.1852</v>
       </c>
       <c r="G238" t="n">
+        <v>860.2666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>872.4833333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
         <v>863</v>
       </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8785,24 +9701,25 @@
         <v>552.8484</v>
       </c>
       <c r="G239" t="n">
+        <v>859.8666666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>872.1</v>
       </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8826,22 +9743,27 @@
         <v>525.6582</v>
       </c>
       <c r="G240" t="n">
+        <v>860</v>
+      </c>
+      <c r="H240" t="n">
         <v>871.7333333333333</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>857</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8865,22 +9787,27 @@
         <v>1354.853</v>
       </c>
       <c r="G241" t="n">
+        <v>859.7333333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>871.3833333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>858</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8904,22 +9831,27 @@
         <v>235</v>
       </c>
       <c r="G242" t="n">
+        <v>860.4</v>
+      </c>
+      <c r="H242" t="n">
         <v>871.1333333333333</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>858</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8943,22 +9875,27 @@
         <v>185</v>
       </c>
       <c r="G243" t="n">
+        <v>861.0666666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>870.8833333333333</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>863</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8982,22 +9919,27 @@
         <v>1233.4785</v>
       </c>
       <c r="G244" t="n">
+        <v>861.8666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>870.7166666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>864</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9021,22 +9963,27 @@
         <v>603.7736</v>
       </c>
       <c r="G245" t="n">
+        <v>862.3333333333334</v>
+      </c>
+      <c r="H245" t="n">
         <v>870.6333333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>866</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9060,22 +10007,27 @@
         <v>1017.61626575</v>
       </c>
       <c r="G246" t="n">
+        <v>863.3333333333334</v>
+      </c>
+      <c r="H246" t="n">
         <v>870.6333333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>872</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9099,22 +10051,27 @@
         <v>190</v>
       </c>
       <c r="G247" t="n">
+        <v>863.8666666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>870.5</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>873</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9138,22 +10095,27 @@
         <v>180</v>
       </c>
       <c r="G248" t="n">
+        <v>864.5333333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>870.4333333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>871</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9177,22 +10139,27 @@
         <v>406.35</v>
       </c>
       <c r="G249" t="n">
+        <v>865.0666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>870.3333333333334</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>871</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9216,22 +10183,27 @@
         <v>59.8864</v>
       </c>
       <c r="G250" t="n">
+        <v>865.6</v>
+      </c>
+      <c r="H250" t="n">
         <v>870.2166666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>872</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9255,22 +10227,27 @@
         <v>37.5726</v>
       </c>
       <c r="G251" t="n">
+        <v>865.9333333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>870</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>872</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9294,22 +10271,27 @@
         <v>1732.0682</v>
       </c>
       <c r="G252" t="n">
+        <v>866.0666666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>869.8166666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>865</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9333,22 +10315,27 @@
         <v>5</v>
       </c>
       <c r="G253" t="n">
+        <v>866.1333333333333</v>
+      </c>
+      <c r="H253" t="n">
         <v>869.5833333333334</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>865</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9372,22 +10359,27 @@
         <v>201.8791</v>
       </c>
       <c r="G254" t="n">
+        <v>866.8</v>
+      </c>
+      <c r="H254" t="n">
         <v>869.4</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>865</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9411,22 +10403,27 @@
         <v>538.8378</v>
       </c>
       <c r="G255" t="n">
+        <v>867.7333333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>869.25</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>867</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9450,22 +10447,27 @@
         <v>805</v>
       </c>
       <c r="G256" t="n">
+        <v>868.8</v>
+      </c>
+      <c r="H256" t="n">
         <v>869.1666666666666</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>872</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9489,22 +10491,27 @@
         <v>4.1239</v>
       </c>
       <c r="G257" t="n">
+        <v>869.5333333333333</v>
+      </c>
+      <c r="H257" t="n">
         <v>869.1</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>874</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9528,22 +10535,25 @@
         <v>13</v>
       </c>
       <c r="G258" t="n">
+        <v>870.5333333333333</v>
+      </c>
+      <c r="H258" t="n">
         <v>869.1166666666667</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9567,22 +10577,25 @@
         <v>100</v>
       </c>
       <c r="G259" t="n">
+        <v>871.4</v>
+      </c>
+      <c r="H259" t="n">
         <v>869.1333333333333</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9606,22 +10619,25 @@
         <v>159.6427</v>
       </c>
       <c r="G260" t="n">
+        <v>872</v>
+      </c>
+      <c r="H260" t="n">
         <v>869.2</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9645,22 +10661,25 @@
         <v>73.84999999999999</v>
       </c>
       <c r="G261" t="n">
+        <v>872.5333333333333</v>
+      </c>
+      <c r="H261" t="n">
         <v>869.2833333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9684,22 +10703,25 @@
         <v>84.2604</v>
       </c>
       <c r="G262" t="n">
+        <v>873.2</v>
+      </c>
+      <c r="H262" t="n">
         <v>869.3333333333334</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,22 +10745,25 @@
         <v>120.1487</v>
       </c>
       <c r="G263" t="n">
+        <v>873.8</v>
+      </c>
+      <c r="H263" t="n">
         <v>869.3666666666667</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9762,22 +10787,25 @@
         <v>219.961</v>
       </c>
       <c r="G264" t="n">
+        <v>874.3333333333334</v>
+      </c>
+      <c r="H264" t="n">
         <v>869.4</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9801,22 +10829,27 @@
         <v>72.4462</v>
       </c>
       <c r="G265" t="n">
+        <v>874.8666666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>869.4166666666666</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>880</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9840,22 +10873,27 @@
         <v>95.8847</v>
       </c>
       <c r="G266" t="n">
+        <v>875.8666666666667</v>
+      </c>
+      <c r="H266" t="n">
         <v>869.4333333333333</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>880</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9879,22 +10917,29 @@
         <v>89.87990000000001</v>
       </c>
       <c r="G267" t="n">
+        <v>876.9333333333333</v>
+      </c>
+      <c r="H267" t="n">
         <v>869.4166666666666</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>1</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>880</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9916,18 +10961,457 @@
         <v>479.9999</v>
       </c>
       <c r="G268" t="n">
+        <v>878</v>
+      </c>
+      <c r="H268" t="n">
         <v>869.3833333333333</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>1</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>881</v>
+      </c>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>881</v>
+      </c>
+      <c r="C269" t="n">
+        <v>881</v>
+      </c>
+      <c r="D269" t="n">
+        <v>881</v>
+      </c>
+      <c r="E269" t="n">
+        <v>881</v>
+      </c>
+      <c r="F269" t="n">
+        <v>171.3399</v>
+      </c>
+      <c r="G269" t="n">
+        <v>878.9333333333333</v>
+      </c>
+      <c r="H269" t="n">
+        <v>869.3666666666667</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>881</v>
+      </c>
+      <c r="C270" t="n">
+        <v>883</v>
+      </c>
+      <c r="D270" t="n">
+        <v>883</v>
+      </c>
+      <c r="E270" t="n">
+        <v>881</v>
+      </c>
+      <c r="F270" t="n">
+        <v>5409.8348</v>
+      </c>
+      <c r="G270" t="n">
+        <v>879.6666666666666</v>
+      </c>
+      <c r="H270" t="n">
+        <v>869.3833333333333</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>881</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>884</v>
+      </c>
+      <c r="C271" t="n">
+        <v>884</v>
+      </c>
+      <c r="D271" t="n">
+        <v>884</v>
+      </c>
+      <c r="E271" t="n">
+        <v>884</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3116.4382</v>
+      </c>
+      <c r="G271" t="n">
+        <v>880.3333333333334</v>
+      </c>
+      <c r="H271" t="n">
+        <v>869.4</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>883</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>883</v>
+      </c>
+      <c r="C272" t="n">
+        <v>883</v>
+      </c>
+      <c r="D272" t="n">
+        <v>883</v>
+      </c>
+      <c r="E272" t="n">
+        <v>883</v>
+      </c>
+      <c r="F272" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="G272" t="n">
+        <v>880.9333333333333</v>
+      </c>
+      <c r="H272" t="n">
+        <v>869.4166666666666</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>884</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>882</v>
+      </c>
+      <c r="C273" t="n">
+        <v>882</v>
+      </c>
+      <c r="D273" t="n">
+        <v>882</v>
+      </c>
+      <c r="E273" t="n">
+        <v>882</v>
+      </c>
+      <c r="F273" t="n">
+        <v>95.8847</v>
+      </c>
+      <c r="G273" t="n">
+        <v>881.1333333333333</v>
+      </c>
+      <c r="H273" t="n">
+        <v>869.4833333333333</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>883</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>884</v>
+      </c>
+      <c r="C274" t="n">
+        <v>884</v>
+      </c>
+      <c r="D274" t="n">
+        <v>884</v>
+      </c>
+      <c r="E274" t="n">
+        <v>884</v>
+      </c>
+      <c r="F274" t="n">
+        <v>113.052</v>
+      </c>
+      <c r="G274" t="n">
+        <v>881.4666666666667</v>
+      </c>
+      <c r="H274" t="n">
+        <v>869.55</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>882</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>885</v>
+      </c>
+      <c r="C275" t="n">
+        <v>885</v>
+      </c>
+      <c r="D275" t="n">
+        <v>885</v>
+      </c>
+      <c r="E275" t="n">
+        <v>885</v>
+      </c>
+      <c r="F275" t="n">
+        <v>536.9099</v>
+      </c>
+      <c r="G275" t="n">
+        <v>881.7333333333333</v>
+      </c>
+      <c r="H275" t="n">
+        <v>869.75</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>885</v>
+      </c>
+      <c r="C276" t="n">
+        <v>886</v>
+      </c>
+      <c r="D276" t="n">
+        <v>886</v>
+      </c>
+      <c r="E276" t="n">
+        <v>885</v>
+      </c>
+      <c r="F276" t="n">
+        <v>944.0179000000001</v>
+      </c>
+      <c r="G276" t="n">
+        <v>882.0666666666667</v>
+      </c>
+      <c r="H276" t="n">
+        <v>870</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>882</v>
+      </c>
+      <c r="C277" t="n">
+        <v>882</v>
+      </c>
+      <c r="D277" t="n">
+        <v>882</v>
+      </c>
+      <c r="E277" t="n">
+        <v>882</v>
+      </c>
+      <c r="F277" t="n">
+        <v>645.2676</v>
+      </c>
+      <c r="G277" t="n">
+        <v>882.1333333333333</v>
+      </c>
+      <c r="H277" t="n">
+        <v>870.2833333333333</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>883</v>
+      </c>
+      <c r="C278" t="n">
+        <v>883</v>
+      </c>
+      <c r="D278" t="n">
+        <v>883</v>
+      </c>
+      <c r="E278" t="n">
+        <v>883</v>
+      </c>
+      <c r="F278" t="n">
+        <v>74.67</v>
+      </c>
+      <c r="G278" t="n">
+        <v>882.3333333333334</v>
+      </c>
+      <c r="H278" t="n">
+        <v>870.4666666666667</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-26 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N336"/>
+  <dimension ref="A1:M336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>2405.7916</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>2405.7916</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>2405.7916</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>2405.7916</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>2226.765899999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>2226.765899999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>1342.29190868</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>2272.84350868</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>2272.84350868</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>2272.84350868</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>2812.31090868</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>2621.87090868</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>4365.46850868</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>29546.74030868</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>31113.52430868</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>29457.63190868</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>29900.09590868</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>30307.62320868</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>30250.89270868</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>31053.61300868</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>32824.30030868</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>33219.59390868</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>34125.26960868</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>33369.27900868</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>34639.94370868</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>34979.12590868001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>33596.55490868</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>29547.61120868</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>23681.52610868</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>23681.52610868</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4213,15 @@
         <v>20900.07380868</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5269,15 @@
         <v>11903.94097403</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>11903.94097403</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +5632,15 @@
         <v>13419.11877403</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5665,15 @@
         <v>13444.11877403</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5698,15 @@
         <v>13436.12847403</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5731,15 @@
         <v>13436.12847403</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,18 +5764,15 @@
         <v>13551.68927403</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7044,18 +6490,15 @@
         <v>16924.51547403</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7080,18 +6523,15 @@
         <v>16685.93267403</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7116,18 +6556,15 @@
         <v>16685.93267403</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7152,18 +6589,15 @@
         <v>16685.93267403</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,18 +6622,15 @@
         <v>16685.93267403</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7476,18 +6886,15 @@
         <v>20628.11437403</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7512,18 +6919,15 @@
         <v>20891.47617403</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7548,18 +6952,15 @@
         <v>21567.32847403</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7584,18 +6985,15 @@
         <v>21537.32847403</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7620,18 +7018,15 @@
         <v>21531.32847403</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7656,18 +7051,15 @@
         <v>21521.33847403</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9780,18 +8998,19 @@
         <v>-33119.88692597</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>878</v>
+      </c>
+      <c r="J261" t="n">
+        <v>878</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9037,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>878</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9076,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>878</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9115,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9148,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9181,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9214,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9247,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9280,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9313,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9346,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9379,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9412,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9445,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9478,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9511,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9544,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9577,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9610,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9643,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9676,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9709,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9742,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9775,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9808,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9841,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10716,18 +9872,19 @@
         <v>-34424.04042597</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>854</v>
+      </c>
+      <c r="J287" t="n">
+        <v>854</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10752,22 +9909,21 @@
         <v>-33361.06582597</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
         <v>854</v>
       </c>
-      <c r="K288" t="n">
-        <v>854</v>
-      </c>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10792,26 +9948,23 @@
         <v>-34143.52902597</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="J289" t="n">
-        <v>865</v>
-      </c>
-      <c r="K289" t="n">
         <v>854</v>
       </c>
-      <c r="L289" t="inlineStr">
+      <c r="K289" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10836,110 +9989,93 @@
         <v>-33955.41992597</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="n">
-        <v>858</v>
-      </c>
-      <c r="K290" t="n">
-        <v>854</v>
-      </c>
-      <c r="L290" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>861</v>
+      </c>
+      <c r="C291" t="n">
+        <v>861</v>
+      </c>
+      <c r="D291" t="n">
+        <v>861</v>
+      </c>
+      <c r="E291" t="n">
+        <v>861</v>
+      </c>
+      <c r="F291" t="n">
+        <v>148.5151</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-34103.93502596999</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2</v>
+      </c>
+      <c r="I291" t="n">
+        <v>863</v>
+      </c>
+      <c r="J291" t="n">
+        <v>863</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>864</v>
+      </c>
+      <c r="C292" t="n">
+        <v>864</v>
+      </c>
+      <c r="D292" t="n">
+        <v>864</v>
+      </c>
+      <c r="E292" t="n">
+        <v>864</v>
+      </c>
+      <c r="F292" t="n">
+        <v>190</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-33913.93502596999</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2</v>
+      </c>
+      <c r="I292" t="n">
+        <v>861</v>
+      </c>
+      <c r="J292" t="n">
+        <v>863</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>861</v>
-      </c>
-      <c r="C291" t="n">
-        <v>861</v>
-      </c>
-      <c r="D291" t="n">
-        <v>861</v>
-      </c>
-      <c r="E291" t="n">
-        <v>861</v>
-      </c>
-      <c r="F291" t="n">
-        <v>148.5151</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-34103.93502596999</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="n">
-        <v>863</v>
-      </c>
-      <c r="K291" t="n">
-        <v>863</v>
-      </c>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>864</v>
-      </c>
-      <c r="C292" t="n">
-        <v>864</v>
-      </c>
-      <c r="D292" t="n">
-        <v>864</v>
-      </c>
-      <c r="E292" t="n">
-        <v>864</v>
-      </c>
-      <c r="F292" t="n">
-        <v>190</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-33913.93502596999</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="n">
-        <v>861</v>
-      </c>
-      <c r="K292" t="n">
-        <v>863</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10964,26 +10100,21 @@
         <v>-33913.93502596999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>864</v>
-      </c>
-      <c r="K293" t="n">
         <v>863</v>
       </c>
-      <c r="L293" t="inlineStr">
+      <c r="K293" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11008,24 +10139,23 @@
         <v>-34121.58002596999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
+        <v>864</v>
+      </c>
+      <c r="J294" t="n">
         <v>863</v>
       </c>
-      <c r="L294" t="inlineStr">
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11050,24 +10180,23 @@
         <v>-34068.76402596999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
+        <v>860</v>
+      </c>
+      <c r="J295" t="n">
         <v>863</v>
       </c>
-      <c r="L295" t="inlineStr">
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11094,22 +10223,19 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
         <v>863</v>
       </c>
-      <c r="L296" t="inlineStr">
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11136,22 +10262,19 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
         <v>863</v>
       </c>
-      <c r="L297" t="inlineStr">
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11176,26 +10299,23 @@
         <v>-33291.76902597</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="J298" t="n">
-        <v>857</v>
-      </c>
-      <c r="K298" t="n">
         <v>863</v>
       </c>
-      <c r="L298" t="inlineStr">
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11220,26 +10340,23 @@
         <v>-33291.76902597</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J299" t="n">
-        <v>858</v>
-      </c>
-      <c r="K299" t="n">
         <v>863</v>
       </c>
-      <c r="L299" t="inlineStr">
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11264,26 +10381,23 @@
         <v>-33056.76902597</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J300" t="n">
-        <v>858</v>
-      </c>
-      <c r="K300" t="n">
         <v>863</v>
       </c>
-      <c r="L300" t="inlineStr">
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11308,26 +10422,23 @@
         <v>-32871.76902597</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="J301" t="n">
         <v>863</v>
       </c>
-      <c r="K301" t="n">
-        <v>863</v>
-      </c>
-      <c r="L301" t="inlineStr">
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11352,26 +10463,23 @@
         <v>-31638.29052596999</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="J302" t="n">
-        <v>864</v>
-      </c>
-      <c r="K302" t="n">
         <v>863</v>
       </c>
-      <c r="L302" t="inlineStr">
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11396,26 +10504,23 @@
         <v>-31034.51692596999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="J303" t="n">
-        <v>866</v>
-      </c>
-      <c r="K303" t="n">
         <v>863</v>
       </c>
-      <c r="L303" t="inlineStr">
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11440,26 +10545,23 @@
         <v>-30016.90066022</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="J304" t="n">
-        <v>872</v>
-      </c>
-      <c r="K304" t="n">
         <v>863</v>
       </c>
-      <c r="L304" t="inlineStr">
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11484,26 +10586,23 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="J305" t="n">
-        <v>873</v>
-      </c>
-      <c r="K305" t="n">
         <v>863</v>
       </c>
-      <c r="L305" t="inlineStr">
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11528,26 +10627,23 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="J306" t="n">
-        <v>871</v>
-      </c>
-      <c r="K306" t="n">
         <v>863</v>
       </c>
-      <c r="L306" t="inlineStr">
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11572,24 +10668,23 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
+        <v>871</v>
+      </c>
+      <c r="J307" t="n">
         <v>863</v>
       </c>
-      <c r="L307" t="inlineStr">
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11614,24 +10709,23 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
+        <v>872</v>
+      </c>
+      <c r="J308" t="n">
         <v>863</v>
       </c>
-      <c r="L308" t="inlineStr">
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11656,24 +10750,23 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
+        <v>872</v>
+      </c>
+      <c r="J309" t="n">
         <v>863</v>
       </c>
-      <c r="L309" t="inlineStr">
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11698,24 +10791,23 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
+        <v>865</v>
+      </c>
+      <c r="J310" t="n">
         <v>863</v>
       </c>
-      <c r="L310" t="inlineStr">
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11740,24 +10832,23 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
+        <v>865</v>
+      </c>
+      <c r="J311" t="n">
         <v>863</v>
       </c>
-      <c r="L311" t="inlineStr">
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11782,26 +10873,23 @@
         <v>-29636.24416022</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="J312" t="n">
-        <v>865</v>
-      </c>
-      <c r="K312" t="n">
         <v>863</v>
       </c>
-      <c r="L312" t="inlineStr">
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11826,26 +10914,21 @@
         <v>-29097.40636022</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>867</v>
-      </c>
-      <c r="K313" t="n">
         <v>863</v>
       </c>
-      <c r="L313" t="inlineStr">
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11872,22 +10955,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
         <v>863</v>
       </c>
-      <c r="L314" t="inlineStr">
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11914,22 +10994,19 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
         <v>863</v>
       </c>
-      <c r="L315" t="inlineStr">
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11956,22 +11033,19 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
         <v>863</v>
       </c>
-      <c r="L316" t="inlineStr">
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11998,22 +11072,19 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
         <v>863</v>
       </c>
-      <c r="L317" t="inlineStr">
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12040,22 +11111,19 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
         <v>863</v>
       </c>
-      <c r="L318" t="inlineStr">
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12082,22 +11150,19 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
         <v>863</v>
       </c>
-      <c r="L319" t="inlineStr">
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12124,22 +11189,19 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
         <v>863</v>
       </c>
-      <c r="L320" t="inlineStr">
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12166,22 +11228,19 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
         <v>863</v>
       </c>
-      <c r="L321" t="inlineStr">
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12208,22 +11267,19 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
         <v>863</v>
       </c>
-      <c r="L322" t="inlineStr">
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12250,22 +11306,19 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
         <v>863</v>
       </c>
-      <c r="L323" t="inlineStr">
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12292,22 +11345,19 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
         <v>863</v>
       </c>
-      <c r="L324" t="inlineStr">
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12334,22 +11384,19 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
         <v>863</v>
       </c>
-      <c r="L325" t="inlineStr">
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12374,24 +11421,23 @@
         <v>-28150.03246022</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
+        <v>881</v>
+      </c>
+      <c r="J326" t="n">
         <v>863</v>
       </c>
-      <c r="L326" t="inlineStr">
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12416,24 +11462,23 @@
         <v>-28150.03246022</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
+        <v>881</v>
+      </c>
+      <c r="J327" t="n">
         <v>863</v>
       </c>
-      <c r="L327" t="inlineStr">
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12460,22 +11505,19 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
         <v>863</v>
       </c>
-      <c r="L328" t="inlineStr">
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12500,24 +11542,23 @@
         <v>-19623.75946022</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
+        <v>883</v>
+      </c>
+      <c r="J329" t="n">
         <v>863</v>
       </c>
-      <c r="L329" t="inlineStr">
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12544,22 +11585,19 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
         <v>863</v>
       </c>
-      <c r="L330" t="inlineStr">
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12586,22 +11624,19 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
         <v>863</v>
       </c>
-      <c r="L331" t="inlineStr">
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12628,22 +11663,19 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
         <v>863</v>
       </c>
-      <c r="L332" t="inlineStr">
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12670,22 +11702,19 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
         <v>863</v>
       </c>
-      <c r="L333" t="inlineStr">
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12712,22 +11741,19 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
         <v>863</v>
       </c>
-      <c r="L334" t="inlineStr">
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12754,22 +11780,19 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
         <v>863</v>
       </c>
-      <c r="L335" t="inlineStr">
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12796,24 +11819,21 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
         <v>863</v>
       </c>
-      <c r="L336" t="inlineStr">
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-26 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2226.765899999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2226.765899999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1342.29190868</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>2272.84350868</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>2272.84350868</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2272.84350868</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2812.31090868</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2621.87090868</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>4365.46850868</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>29546.74030868</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>31113.52430868</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>29457.63190868</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>29900.09590868</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>30307.62320868</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>30250.89270868</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>31053.61300868</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>32824.30030868</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>33219.59390868</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>34125.26960868</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>33369.27900868</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>34639.94370868</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>34979.12590868001</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>33596.55490868</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>29547.61120868</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>20900.07380868</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>19104.50000868</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>19127.24790868</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>19127.24790868</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>19128.24790868</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>18873.24790868</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>18795.64430868</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>18795.64430868</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>21239.14140868</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>20963.79487403</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>20252.67377403</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>19903.91537403</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>19969.63657403</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>19835.75847403</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>19836.75847403</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>18972.70887403</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>18973.70887403</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>18338.68487403</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>11903.94097403</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>11903.94097403</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>11903.94097403</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>13419.11877403</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>13444.11877403</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>13436.12847403</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>13436.12847403</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>13551.68927403</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>16924.51547403</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>16685.93267403</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>16685.93267403</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>16685.93267403</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>16685.93267403</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>20628.11437403</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>20891.47617403</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>21567.32847403</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>21537.32847403</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>21531.32847403</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>21521.33847403</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8998,14 +8998,10 @@
         <v>-33119.88692597</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>878</v>
-      </c>
-      <c r="J261" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
@@ -9038,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>878</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9077,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>878</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9740,11 +9724,17 @@
         <v>-37486.40402597</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>863</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9777,7 +9767,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9810,7 +9804,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9839,11 +9837,17 @@
         <v>-34424.04042597</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>853</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9872,15 +9876,17 @@
         <v>-34424.04042597</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>854</v>
       </c>
-      <c r="J287" t="n">
-        <v>854</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9909,15 +9915,15 @@
         <v>-33361.06582597</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
         <v>854</v>
       </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L288" t="n">
@@ -9948,17 +9954,15 @@
         <v>-34143.52902597</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>865</v>
       </c>
-      <c r="J289" t="n">
-        <v>854</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -9989,11 +9993,17 @@
         <v>-33955.41992597</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>858</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10022,15 +10032,17 @@
         <v>-34103.93502596999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>863</v>
       </c>
-      <c r="J291" t="n">
-        <v>863</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10059,17 +10071,15 @@
         <v>-33913.93502596999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>861</v>
       </c>
-      <c r="J292" t="n">
-        <v>863</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10100,15 +10110,15 @@
         <v>-33913.93502596999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>863</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>864</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L293" t="n">
@@ -10139,14 +10149,12 @@
         <v>-34121.58002596999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>864</v>
       </c>
-      <c r="J294" t="n">
-        <v>863</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,14 +10188,12 @@
         <v>-34068.76402596999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>860</v>
       </c>
-      <c r="J295" t="n">
-        <v>863</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10221,12 +10227,12 @@
         <v>-33264.57882596999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
         <v>863</v>
       </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10260,12 +10266,12 @@
         <v>-33817.42722596999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>863</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>864</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10299,14 +10305,12 @@
         <v>-33291.76902597</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>857</v>
       </c>
-      <c r="J298" t="n">
-        <v>863</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,14 +10344,12 @@
         <v>-33291.76902597</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>858</v>
       </c>
-      <c r="J299" t="n">
-        <v>863</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,14 +10383,12 @@
         <v>-33056.76902597</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>858</v>
       </c>
-      <c r="J300" t="n">
-        <v>863</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10422,14 +10422,12 @@
         <v>-32871.76902597</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>863</v>
       </c>
-      <c r="J301" t="n">
-        <v>863</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10463,14 +10461,12 @@
         <v>-31638.29052596999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>864</v>
       </c>
-      <c r="J302" t="n">
-        <v>863</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10504,14 +10500,12 @@
         <v>-31034.51692596999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>866</v>
       </c>
-      <c r="J303" t="n">
-        <v>863</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10545,14 +10539,12 @@
         <v>-30016.90066022</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>872</v>
       </c>
-      <c r="J304" t="n">
-        <v>863</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10586,14 +10578,12 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>873</v>
       </c>
-      <c r="J305" t="n">
-        <v>863</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10627,14 +10617,12 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>871</v>
       </c>
-      <c r="J306" t="n">
-        <v>863</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10668,14 +10656,12 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>871</v>
       </c>
-      <c r="J307" t="n">
-        <v>863</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10709,14 +10695,10 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>872</v>
-      </c>
-      <c r="J308" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10750,14 +10732,10 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>872</v>
-      </c>
-      <c r="J309" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10791,14 +10769,10 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>865</v>
-      </c>
-      <c r="J310" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10832,14 +10806,10 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>865</v>
-      </c>
-      <c r="J311" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10873,14 +10843,10 @@
         <v>-29636.24416022</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>865</v>
-      </c>
-      <c r="J312" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10914,12 +10880,12 @@
         <v>-29097.40636022</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>863</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>867</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10956,9 +10922,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>863</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10995,9 +10959,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>863</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11034,9 +10996,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>863</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11073,9 +11033,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>863</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11112,9 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>863</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11151,9 +11107,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>863</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11190,9 +11144,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>863</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11229,9 +11181,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>863</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11268,9 +11218,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>863</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11307,9 +11255,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>863</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11346,9 +11292,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>863</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11385,9 +11329,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>863</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11421,14 +11363,10 @@
         <v>-28150.03246022</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>881</v>
-      </c>
-      <c r="J326" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11462,14 +11400,10 @@
         <v>-28150.03246022</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>881</v>
-      </c>
-      <c r="J327" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11506,9 +11440,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>863</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11542,14 +11474,10 @@
         <v>-19623.75946022</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>883</v>
-      </c>
-      <c r="J329" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,9 +11514,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>863</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11625,9 +11551,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>863</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,9 +11588,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>863</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11703,9 +11625,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>863</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11742,9 +11662,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>863</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11781,9 +11699,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>863</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,9 +11736,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>863</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11834,6 +11748,6 @@
       <c r="M336" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-26 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4695.2247</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4721.435399999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-165.1808913200003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-73.67859132000028</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-73.67859132000028</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4101.403691320001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3025.966108679999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3025.966108679999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3223.711808679999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3223.711808679999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5085.49400868</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2272.84350868</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2812.31090868</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2621.87090868</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>4365.46850868</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1975.85560868</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2116.61560868</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2116.61560868</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>951.6117086800002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>871.3147086800002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>34639.94370868</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>34979.12590868001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>33596.55490868</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>29547.61120868</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>19104.50000868</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>19127.24790868</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>19127.24790868</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>19128.24790868</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>18873.24790868</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>18795.64430868</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>18795.64430868</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>21239.14140868</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>20963.79487403</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>20252.67377403</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>19903.91537403</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>19969.63657403</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>19835.75847403</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>19836.75847403</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>18972.70887403</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>18973.70887403</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>18338.68487403</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>11903.94097403</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -9724,17 +9724,11 @@
         <v>-37486.40402597</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9767,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9804,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9837,17 +9823,11 @@
         <v>-34424.04042597</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9876,17 +9856,11 @@
         <v>-34424.04042597</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9915,17 +9889,11 @@
         <v>-33361.06582597</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9954,17 +9922,11 @@
         <v>-34143.52902597</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9993,17 +9955,11 @@
         <v>-33955.41992597</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10032,17 +9988,11 @@
         <v>-34103.93502596999</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10071,17 +10021,11 @@
         <v>-33913.93502596999</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10110,17 +10054,11 @@
         <v>-33913.93502596999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10149,17 +10087,11 @@
         <v>-34121.58002596999</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10188,17 +10120,11 @@
         <v>-34068.76402596999</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10227,17 +10153,11 @@
         <v>-33264.57882596999</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10266,17 +10186,11 @@
         <v>-33817.42722596999</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10310,12 +10224,10 @@
       <c r="I298" t="n">
         <v>857</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="n">
+        <v>857</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10349,10 +10261,12 @@
       <c r="I299" t="n">
         <v>858</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>857</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10388,10 +10302,12 @@
       <c r="I300" t="n">
         <v>858</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>857</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L300" t="n">
@@ -10427,12 +10343,10 @@
       <c r="I301" t="n">
         <v>863</v>
       </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="n">
+        <v>863</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10466,10 +10380,12 @@
       <c r="I302" t="n">
         <v>864</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>863</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -10500,15 +10416,15 @@
         <v>-31034.51692596999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>866</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>863</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -10539,17 +10455,11 @@
         <v>-30016.90066022</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10578,17 +10488,11 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10617,17 +10521,11 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10656,17 +10554,11 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10699,11 +10591,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10736,11 +10624,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10773,11 +10657,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10810,11 +10690,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10847,11 +10723,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10880,17 +10752,11 @@
         <v>-29097.40636022</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10923,11 +10789,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10960,11 +10822,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10997,11 +10855,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11034,11 +10888,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11071,11 +10921,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11108,11 +10954,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11145,11 +10987,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11182,11 +11020,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11219,11 +11053,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11256,11 +11086,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11293,11 +11119,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11330,11 +11152,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11367,11 +11185,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11404,11 +11218,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11441,11 +11251,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11478,11 +11284,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11515,11 +11317,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11552,11 +11350,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11589,11 +11383,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11626,11 +11416,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11663,11 +11449,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11696,15 +11478,11 @@
         <v>-18782.90196022</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11733,21 +11511,17 @@
         <v>-18708.23196022</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
       <c r="M336" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-26 BackTest WAVES.xlsx
@@ -451,7 +451,7 @@
         <v>4695.2247</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4721.435399999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-165.1808913200003</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-73.67859132000028</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-73.67859132000028</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4101.403691320001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3025.966108679999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3025.966108679999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3223.711808679999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3223.711808679999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5085.49400868</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2272.84350868</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2812.31090868</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2621.87090868</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>4365.46850868</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1975.85560868</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2116.61560868</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2116.61560868</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>951.6117086800002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>871.3147086800002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>32824.30030868</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>33219.59390868</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>34125.26960868</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>33369.27900868</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>34639.94370868</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>34979.12590868001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>33596.55490868</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>29547.61120868</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>20900.07380868</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>20850.07380868</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>19950.92730868</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>20346.61950868</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>19443.61950868</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -9955,11 +9955,17 @@
         <v>-33955.41992597</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>858</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +9994,17 @@
         <v>-34103.93502596999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>863</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10033,17 @@
         <v>-33913.93502596999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>861</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10076,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10109,17 @@
         <v>-34121.58002596999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>864</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10152,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10189,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10226,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10224,10 +10264,12 @@
       <c r="I298" t="n">
         <v>857</v>
       </c>
-      <c r="J298" t="n">
-        <v>857</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10261,12 +10303,10 @@
       <c r="I299" t="n">
         <v>858</v>
       </c>
-      <c r="J299" t="n">
-        <v>857</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10302,12 +10342,10 @@
       <c r="I300" t="n">
         <v>858</v>
       </c>
-      <c r="J300" t="n">
-        <v>857</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L300" t="n">
@@ -10343,10 +10381,12 @@
       <c r="I301" t="n">
         <v>863</v>
       </c>
-      <c r="J301" t="n">
-        <v>863</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10380,12 +10420,10 @@
       <c r="I302" t="n">
         <v>864</v>
       </c>
-      <c r="J302" t="n">
-        <v>863</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -10416,15 +10454,15 @@
         <v>-31034.51692596999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>863</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>866</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -10455,11 +10493,17 @@
         <v>-30016.90066022</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>872</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10488,11 +10532,17 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>873</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10521,11 +10571,17 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>871</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10554,11 +10610,17 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>871</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10587,11 +10649,17 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>872</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10620,11 +10688,17 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>872</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10653,11 +10727,17 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>865</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10686,11 +10766,17 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>865</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10719,11 +10805,17 @@
         <v>-29636.24416022</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>865</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10752,11 +10844,17 @@
         <v>-29097.40636022</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>867</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10789,7 +10887,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10822,7 +10924,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10855,7 +10961,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10888,7 +10998,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10921,7 +11035,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10954,7 +11072,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10987,7 +11109,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11020,7 +11146,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11053,7 +11183,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11086,7 +11220,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11119,7 +11257,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11152,7 +11294,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11185,7 +11331,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11218,7 +11368,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11251,7 +11405,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11284,7 +11442,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11317,7 +11479,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11350,7 +11516,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11383,7 +11553,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11416,7 +11590,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11449,7 +11627,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11478,11 +11660,15 @@
         <v>-18782.90196022</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11511,11 +11697,15 @@
         <v>-18708.23196022</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
